--- a/raw_data/20200818_saline/20200818_Sensor0_Test_67.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_67.xlsx
@@ -1,1082 +1,1498 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62450035-473F-45F3-98FA-299B907ACBDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>59402.896152</v>
+        <v>59402.896152000001</v>
       </c>
       <c r="B2" s="1">
-        <v>16.500804</v>
+        <v>16.500803999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>905.441000</v>
+        <v>905.44100000000003</v>
       </c>
       <c r="D2" s="1">
-        <v>-192.924000</v>
+        <v>-192.92400000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>59412.632123</v>
+        <v>59412.632123000003</v>
       </c>
       <c r="G2" s="1">
-        <v>16.503509</v>
+        <v>16.503509000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>921.364000</v>
+        <v>921.36400000000003</v>
       </c>
       <c r="I2" s="1">
-        <v>-163.364000</v>
+        <v>-163.364</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>59422.741582</v>
+        <v>59422.741582000002</v>
       </c>
       <c r="L2" s="1">
-        <v>16.506317</v>
+        <v>16.506316999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>942.528000</v>
+        <v>942.52800000000002</v>
       </c>
       <c r="N2" s="1">
-        <v>-117.121000</v>
+        <v>-117.121</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>59433.602512</v>
+        <v>59433.602511999998</v>
       </c>
       <c r="Q2" s="1">
-        <v>16.509334</v>
+        <v>16.509333999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>948.873000</v>
+        <v>948.87300000000005</v>
       </c>
       <c r="S2" s="1">
-        <v>-102.233000</v>
+        <v>-102.233</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>59444.207441</v>
+        <v>59444.207440999999</v>
       </c>
       <c r="V2" s="1">
-        <v>16.512280</v>
+        <v>16.512280000000001</v>
       </c>
       <c r="W2" s="1">
-        <v>955.290000</v>
+        <v>955.29</v>
       </c>
       <c r="X2" s="1">
-        <v>-89.084300</v>
+        <v>-89.084299999999999</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>59454.632978</v>
+        <v>59454.632978000001</v>
       </c>
       <c r="AA2" s="1">
         <v>16.515176</v>
       </c>
       <c r="AB2" s="1">
-        <v>962.403000</v>
+        <v>962.40300000000002</v>
       </c>
       <c r="AC2" s="1">
-        <v>-80.016100</v>
+        <v>-80.016099999999994</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>59465.196681</v>
+        <v>59465.196681000001</v>
       </c>
       <c r="AF2" s="1">
-        <v>16.518110</v>
+        <v>16.51811</v>
       </c>
       <c r="AG2" s="1">
-        <v>967.495000</v>
+        <v>967.495</v>
       </c>
       <c r="AH2" s="1">
-        <v>-79.874100</v>
+        <v>-79.874099999999999</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>59475.654792</v>
+        <v>59475.654792000001</v>
       </c>
       <c r="AK2" s="1">
-        <v>16.521015</v>
+        <v>16.521014999999998</v>
       </c>
       <c r="AL2" s="1">
-        <v>975.525000</v>
+        <v>975.52499999999998</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.849900</v>
+        <v>-87.849900000000005</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>59486.230193</v>
+        <v>59486.230193000003</v>
       </c>
       <c r="AP2" s="1">
-        <v>16.523953</v>
+        <v>16.523952999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>984.885000</v>
+        <v>984.88499999999999</v>
       </c>
       <c r="AR2" s="1">
-        <v>-102.968000</v>
+        <v>-102.968</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>59497.507568</v>
+        <v>59497.507568000001</v>
       </c>
       <c r="AU2" s="1">
         <v>16.527085</v>
       </c>
       <c r="AV2" s="1">
-        <v>996.460000</v>
+        <v>996.46</v>
       </c>
       <c r="AW2" s="1">
-        <v>-124.615000</v>
+        <v>-124.61499999999999</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>59508.620398</v>
+        <v>59508.620397999999</v>
       </c>
       <c r="AZ2" s="1">
         <v>16.530172</v>
       </c>
       <c r="BA2" s="1">
-        <v>1006.270000</v>
+        <v>1006.27</v>
       </c>
       <c r="BB2" s="1">
-        <v>-143.414000</v>
+        <v>-143.41399999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
         <v>59519.202544</v>
       </c>
       <c r="BE2" s="1">
-        <v>16.533112</v>
+        <v>16.533111999999999</v>
       </c>
       <c r="BF2" s="1">
-        <v>1052.180000</v>
+        <v>1052.18</v>
       </c>
       <c r="BG2" s="1">
-        <v>-228.058000</v>
+        <v>-228.05799999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>59530.650244</v>
+        <v>59530.650243999997</v>
       </c>
       <c r="BJ2" s="1">
         <v>16.536292</v>
       </c>
       <c r="BK2" s="1">
-        <v>1132.290000</v>
+        <v>1132.29</v>
       </c>
       <c r="BL2" s="1">
-        <v>-363.195000</v>
+        <v>-363.19499999999999</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
         <v>59541.819121</v>
       </c>
       <c r="BO2" s="1">
-        <v>16.539394</v>
+        <v>16.539394000000001</v>
       </c>
       <c r="BP2" s="1">
-        <v>1264.130000</v>
+        <v>1264.1300000000001</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-571.628000</v>
+        <v>-571.62800000000004</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>59552.887844</v>
+        <v>59552.887843999997</v>
       </c>
       <c r="BT2" s="1">
-        <v>16.542469</v>
+        <v>16.542469000000001</v>
       </c>
       <c r="BU2" s="1">
-        <v>1411.410000</v>
+        <v>1411.41</v>
       </c>
       <c r="BV2" s="1">
-        <v>-793.950000</v>
+        <v>-793.95</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>59563.274564</v>
+        <v>59563.274563999999</v>
       </c>
       <c r="BY2" s="1">
         <v>16.545354</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1573.310000</v>
+        <v>1573.31</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1025.300000</v>
+        <v>-1025.3</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
         <v>59574.257479</v>
       </c>
       <c r="CD2" s="1">
-        <v>16.548405</v>
+        <v>16.548404999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>1980.700000</v>
+        <v>1980.7</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1565.570000</v>
+        <v>-1565.57</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>59403.272617</v>
+        <v>59403.272617000002</v>
       </c>
       <c r="B3" s="1">
         <v>16.500909</v>
       </c>
       <c r="C3" s="1">
-        <v>905.516000</v>
+        <v>905.51599999999996</v>
       </c>
       <c r="D3" s="1">
-        <v>-192.690000</v>
+        <v>-192.69</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>59413.055212</v>
+        <v>59413.055211999999</v>
       </c>
       <c r="G3" s="1">
-        <v>16.503626</v>
+        <v>16.503626000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>921.555000</v>
+        <v>921.55499999999995</v>
       </c>
       <c r="I3" s="1">
-        <v>-163.061000</v>
+        <v>-163.06100000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
         <v>59423.173101</v>
       </c>
       <c r="L3" s="1">
-        <v>16.506437</v>
+        <v>16.506436999999998</v>
       </c>
       <c r="M3" s="1">
-        <v>942.649000</v>
+        <v>942.649</v>
       </c>
       <c r="N3" s="1">
-        <v>-117.142000</v>
+        <v>-117.142</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>59434.028079</v>
+        <v>59434.028079000003</v>
       </c>
       <c r="Q3" s="1">
         <v>16.509452</v>
       </c>
       <c r="R3" s="1">
-        <v>948.926000</v>
+        <v>948.92600000000004</v>
       </c>
       <c r="S3" s="1">
-        <v>-102.237000</v>
+        <v>-102.23699999999999</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>59444.579473</v>
+        <v>59444.579472999998</v>
       </c>
       <c r="V3" s="1">
         <v>16.512383</v>
       </c>
       <c r="W3" s="1">
-        <v>955.210000</v>
+        <v>955.21</v>
       </c>
       <c r="X3" s="1">
-        <v>-89.104600</v>
+        <v>-89.104600000000005</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>59455.000916</v>
+        <v>59455.000915999997</v>
       </c>
       <c r="AA3" s="1">
-        <v>16.515278</v>
+        <v>16.515277999999999</v>
       </c>
       <c r="AB3" s="1">
-        <v>962.381000</v>
+        <v>962.38099999999997</v>
       </c>
       <c r="AC3" s="1">
-        <v>-80.007400</v>
+        <v>-80.007400000000004</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>59465.579062</v>
+        <v>59465.579061999997</v>
       </c>
       <c r="AF3" s="1">
-        <v>16.518216</v>
+        <v>16.518215999999999</v>
       </c>
       <c r="AG3" s="1">
-        <v>967.474000</v>
+        <v>967.47400000000005</v>
       </c>
       <c r="AH3" s="1">
-        <v>-79.853400</v>
+        <v>-79.853399999999993</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>59476.043657</v>
+        <v>59476.043657000002</v>
       </c>
       <c r="AK3" s="1">
-        <v>16.521123</v>
+        <v>16.521122999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>975.537000</v>
+        <v>975.53700000000003</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.888200</v>
+        <v>-87.888199999999998</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>59486.973509</v>
+        <v>59486.973509000003</v>
       </c>
       <c r="AP3" s="1">
-        <v>16.524159</v>
+        <v>16.524159000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>984.878000</v>
+        <v>984.87800000000004</v>
       </c>
       <c r="AR3" s="1">
-        <v>-102.960000</v>
+        <v>-102.96</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>59497.927148</v>
+        <v>59497.927148000002</v>
       </c>
       <c r="AU3" s="1">
-        <v>16.527202</v>
+        <v>16.527201999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>996.452000</v>
+        <v>996.452</v>
       </c>
       <c r="AW3" s="1">
-        <v>-124.615000</v>
+        <v>-124.61499999999999</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>59509.015212</v>
+        <v>59509.015211999998</v>
       </c>
       <c r="AZ3" s="1">
         <v>16.530282</v>
       </c>
       <c r="BA3" s="1">
-        <v>1006.260000</v>
+        <v>1006.26</v>
       </c>
       <c r="BB3" s="1">
-        <v>-143.404000</v>
+        <v>-143.404</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>59519.564126</v>
+        <v>59519.564125999997</v>
       </c>
       <c r="BE3" s="1">
-        <v>16.533212</v>
+        <v>16.533211999999999</v>
       </c>
       <c r="BF3" s="1">
-        <v>1052.210000</v>
+        <v>1052.21</v>
       </c>
       <c r="BG3" s="1">
-        <v>-228.039000</v>
+        <v>-228.03899999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>59531.350560</v>
+        <v>59531.350559999999</v>
       </c>
       <c r="BJ3" s="1">
         <v>16.536486</v>
       </c>
       <c r="BK3" s="1">
-        <v>1132.330000</v>
+        <v>1132.33</v>
       </c>
       <c r="BL3" s="1">
-        <v>-363.236000</v>
+        <v>-363.23599999999999</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>59542.613711</v>
+        <v>59542.613710999998</v>
       </c>
       <c r="BO3" s="1">
-        <v>16.539615</v>
+        <v>16.539615000000001</v>
       </c>
       <c r="BP3" s="1">
-        <v>1264.120000</v>
+        <v>1264.1199999999999</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-571.646000</v>
+        <v>-571.64599999999996</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>59553.033171</v>
+        <v>59553.033171000003</v>
       </c>
       <c r="BT3" s="1">
-        <v>16.542509</v>
+        <v>16.542508999999999</v>
       </c>
       <c r="BU3" s="1">
-        <v>1411.420000</v>
+        <v>1411.42</v>
       </c>
       <c r="BV3" s="1">
-        <v>-794.175000</v>
+        <v>-794.17499999999995</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>59563.762132</v>
+        <v>59563.762132000003</v>
       </c>
       <c r="BY3" s="1">
         <v>16.545489</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1573.320000</v>
+        <v>1573.32</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1025.400000</v>
+        <v>-1025.4000000000001</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>59574.859125</v>
+        <v>59574.859125000003</v>
       </c>
       <c r="CD3" s="1">
         <v>16.548572</v>
       </c>
       <c r="CE3" s="1">
-        <v>1979.210000</v>
+        <v>1979.21</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1564.610000</v>
+        <v>-1564.61</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>59403.705129</v>
+        <v>59403.705129000002</v>
       </c>
       <c r="B4" s="1">
-        <v>16.501029</v>
+        <v>16.501028999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>905.544000</v>
+        <v>905.54399999999998</v>
       </c>
       <c r="D4" s="1">
-        <v>-192.940000</v>
+        <v>-192.94</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>59413.362731</v>
+        <v>59413.362731000001</v>
       </c>
       <c r="G4" s="1">
         <v>16.503712</v>
       </c>
       <c r="H4" s="1">
-        <v>921.428000</v>
+        <v>921.428</v>
       </c>
       <c r="I4" s="1">
-        <v>-163.242000</v>
+        <v>-163.24199999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>59423.508893</v>
+        <v>59423.508892999998</v>
       </c>
       <c r="L4" s="1">
-        <v>16.506530</v>
+        <v>16.506530000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>942.699000</v>
+        <v>942.69899999999996</v>
       </c>
       <c r="N4" s="1">
-        <v>-117.127000</v>
+        <v>-117.127</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
         <v>59434.378224</v>
       </c>
       <c r="Q4" s="1">
-        <v>16.509550</v>
+        <v>16.509550000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>948.944000</v>
+        <v>948.94399999999996</v>
       </c>
       <c r="S4" s="1">
-        <v>-102.245000</v>
+        <v>-102.245</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>59444.925650</v>
+        <v>59444.925649999997</v>
       </c>
       <c r="V4" s="1">
-        <v>16.512479</v>
+        <v>16.512478999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>955.233000</v>
+        <v>955.23299999999995</v>
       </c>
       <c r="X4" s="1">
-        <v>-88.976100</v>
+        <v>-88.976100000000002</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>59455.350600</v>
+        <v>59455.350599999998</v>
       </c>
       <c r="AA4" s="1">
-        <v>16.515375</v>
+        <v>16.515374999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>962.412000</v>
+        <v>962.41200000000003</v>
       </c>
       <c r="AC4" s="1">
-        <v>-80.014900</v>
+        <v>-80.014899999999997</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
         <v>59466.265388</v>
@@ -1085,452 +1501,452 @@
         <v>16.518407</v>
       </c>
       <c r="AG4" s="1">
-        <v>967.444000</v>
+        <v>967.44399999999996</v>
       </c>
       <c r="AH4" s="1">
-        <v>-79.845200</v>
+        <v>-79.845200000000006</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>59476.738551</v>
+        <v>59476.738551000002</v>
       </c>
       <c r="AK4" s="1">
-        <v>16.521316</v>
+        <v>16.521315999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>975.511000</v>
+        <v>975.51099999999997</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.845000</v>
+        <v>-87.844999999999999</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>59487.336570</v>
+        <v>59487.336569999999</v>
       </c>
       <c r="AP4" s="1">
-        <v>16.524260</v>
+        <v>16.524260000000002</v>
       </c>
       <c r="AQ4" s="1">
-        <v>984.870000</v>
+        <v>984.87</v>
       </c>
       <c r="AR4" s="1">
-        <v>-102.957000</v>
+        <v>-102.95699999999999</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>59498.286747</v>
+        <v>59498.286746999998</v>
       </c>
       <c r="AU4" s="1">
-        <v>16.527302</v>
+        <v>16.527301999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>996.473000</v>
+        <v>996.47299999999996</v>
       </c>
       <c r="AW4" s="1">
-        <v>-124.577000</v>
+        <v>-124.577</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>59509.411544</v>
+        <v>59509.411544000002</v>
       </c>
       <c r="AZ4" s="1">
-        <v>16.530392</v>
+        <v>16.530391999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>1006.260000</v>
+        <v>1006.26</v>
       </c>
       <c r="BB4" s="1">
-        <v>-143.400000</v>
+        <v>-143.4</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>59520.237695</v>
+        <v>59520.237695000003</v>
       </c>
       <c r="BE4" s="1">
-        <v>16.533399</v>
+        <v>16.533398999999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>1052.190000</v>
+        <v>1052.19</v>
       </c>
       <c r="BG4" s="1">
-        <v>-228.074000</v>
+        <v>-228.07400000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>59531.820767</v>
+        <v>59531.820766999997</v>
       </c>
       <c r="BJ4" s="1">
         <v>16.536617</v>
       </c>
       <c r="BK4" s="1">
-        <v>1132.310000</v>
+        <v>1132.31</v>
       </c>
       <c r="BL4" s="1">
-        <v>-363.246000</v>
+        <v>-363.24599999999998</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>59543.083920</v>
+        <v>59543.083919999997</v>
       </c>
       <c r="BO4" s="1">
-        <v>16.539746</v>
+        <v>16.539746000000001</v>
       </c>
       <c r="BP4" s="1">
-        <v>1264.170000</v>
+        <v>1264.17</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-571.697000</v>
+        <v>-571.697</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>59553.441087</v>
+        <v>59553.441086999999</v>
       </c>
       <c r="BT4" s="1">
-        <v>16.542623</v>
+        <v>16.542622999999999</v>
       </c>
       <c r="BU4" s="1">
-        <v>1411.490000</v>
+        <v>1411.49</v>
       </c>
       <c r="BV4" s="1">
-        <v>-794.203000</v>
+        <v>-794.20299999999997</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>59564.194644</v>
+        <v>59564.194644000003</v>
       </c>
       <c r="BY4" s="1">
-        <v>16.545610</v>
+        <v>16.54561</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1573.310000</v>
+        <v>1573.31</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1025.410000</v>
+        <v>-1025.4100000000001</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>59575.396789</v>
+        <v>59575.396788999999</v>
       </c>
       <c r="CD4" s="1">
         <v>16.548721</v>
       </c>
       <c r="CE4" s="1">
-        <v>1979.950000</v>
+        <v>1979.95</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1566.670000</v>
+        <v>-1566.67</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>59403.966551</v>
+        <v>59403.966550999998</v>
       </c>
       <c r="B5" s="1">
-        <v>16.501102</v>
+        <v>16.501101999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>905.704000</v>
+        <v>905.70399999999995</v>
       </c>
       <c r="D5" s="1">
-        <v>-192.925000</v>
+        <v>-192.92500000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>59413.705004</v>
+        <v>59413.705004000003</v>
       </c>
       <c r="G5" s="1">
-        <v>16.503807</v>
+        <v>16.503806999999998</v>
       </c>
       <c r="H5" s="1">
-        <v>921.638000</v>
+        <v>921.63800000000003</v>
       </c>
       <c r="I5" s="1">
-        <v>-163.259000</v>
+        <v>-163.25899999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>59423.852621</v>
+        <v>59423.852620999998</v>
       </c>
       <c r="L5" s="1">
-        <v>16.506626</v>
+        <v>16.506626000000001</v>
       </c>
       <c r="M5" s="1">
-        <v>942.523000</v>
+        <v>942.52300000000002</v>
       </c>
       <c r="N5" s="1">
-        <v>-117.184000</v>
+        <v>-117.184</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>59434.726447</v>
+        <v>59434.726447000001</v>
       </c>
       <c r="Q5" s="1">
         <v>16.509646</v>
       </c>
       <c r="R5" s="1">
-        <v>948.925000</v>
+        <v>948.92499999999995</v>
       </c>
       <c r="S5" s="1">
-        <v>-102.269000</v>
+        <v>-102.26900000000001</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>59445.607679</v>
+        <v>59445.607679000001</v>
       </c>
       <c r="V5" s="1">
-        <v>16.512669</v>
+        <v>16.512668999999999</v>
       </c>
       <c r="W5" s="1">
-        <v>955.187000</v>
+        <v>955.18700000000001</v>
       </c>
       <c r="X5" s="1">
-        <v>-88.956100</v>
+        <v>-88.956100000000006</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>59456.048930</v>
+        <v>59456.048929999997</v>
       </c>
       <c r="AA5" s="1">
-        <v>16.515569</v>
+        <v>16.515568999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>962.394000</v>
+        <v>962.39400000000001</v>
       </c>
       <c r="AC5" s="1">
-        <v>-80.064200</v>
+        <v>-80.0642</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>59466.610775</v>
+        <v>59466.610775000001</v>
       </c>
       <c r="AF5" s="1">
-        <v>16.518503</v>
+        <v>16.518502999999999</v>
       </c>
       <c r="AG5" s="1">
-        <v>967.428000</v>
+        <v>967.428</v>
       </c>
       <c r="AH5" s="1">
-        <v>-79.892500</v>
+        <v>-79.892499999999998</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>59477.088230</v>
+        <v>59477.088230000001</v>
       </c>
       <c r="AK5" s="1">
-        <v>16.521413</v>
+        <v>16.521412999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>975.528000</v>
+        <v>975.52800000000002</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.848500</v>
+        <v>-87.848500000000001</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>59487.695176</v>
+        <v>59487.695176000001</v>
       </c>
       <c r="AP5" s="1">
-        <v>16.524360</v>
+        <v>16.524360000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>984.883000</v>
+        <v>984.88300000000004</v>
       </c>
       <c r="AR5" s="1">
-        <v>-102.951000</v>
+        <v>-102.95099999999999</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>59498.973209</v>
+        <v>59498.973209000003</v>
       </c>
       <c r="AU5" s="1">
         <v>16.527493</v>
       </c>
       <c r="AV5" s="1">
-        <v>996.446000</v>
+        <v>996.44600000000003</v>
       </c>
       <c r="AW5" s="1">
-        <v>-124.605000</v>
+        <v>-124.605</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>59509.897099</v>
+        <v>59509.897099000002</v>
       </c>
       <c r="AZ5" s="1">
-        <v>16.530527</v>
+        <v>16.530526999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>1006.270000</v>
+        <v>1006.27</v>
       </c>
       <c r="BB5" s="1">
-        <v>-143.395000</v>
+        <v>-143.39500000000001</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
         <v>59520.677677</v>
       </c>
       <c r="BE5" s="1">
-        <v>16.533522</v>
+        <v>16.533522000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1052.220000</v>
+        <v>1052.22</v>
       </c>
       <c r="BG5" s="1">
-        <v>-228.074000</v>
+        <v>-228.07400000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>59532.195741</v>
+        <v>59532.195741000003</v>
       </c>
       <c r="BJ5" s="1">
         <v>16.536721</v>
       </c>
       <c r="BK5" s="1">
-        <v>1132.290000</v>
+        <v>1132.29</v>
       </c>
       <c r="BL5" s="1">
-        <v>-363.237000</v>
+        <v>-363.23700000000002</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>59543.487166</v>
+        <v>59543.487165999999</v>
       </c>
       <c r="BO5" s="1">
-        <v>16.539858</v>
+        <v>16.539857999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1264.160000</v>
+        <v>1264.1600000000001</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-571.626000</v>
+        <v>-571.62599999999998</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>59553.872897</v>
+        <v>59553.872897000001</v>
       </c>
       <c r="BT5" s="1">
-        <v>16.542742</v>
+        <v>16.542742000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>1411.550000</v>
+        <v>1411.55</v>
       </c>
       <c r="BV5" s="1">
-        <v>-794.264000</v>
+        <v>-794.26400000000001</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>59564.614291</v>
+        <v>59564.614290999998</v>
       </c>
       <c r="BY5" s="1">
-        <v>16.545726</v>
+        <v>16.545725999999998</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1573.130000</v>
+        <v>1573.13</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1025.420000</v>
+        <v>-1025.42</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>59575.931972</v>
+        <v>59575.931971999998</v>
       </c>
       <c r="CD5" s="1">
-        <v>16.548870</v>
+        <v>16.548870000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>1980.090000</v>
+        <v>1980.09</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1564.340000</v>
+        <v>-1564.34</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>59404.308758</v>
+        <v>59404.308757999999</v>
       </c>
       <c r="B6" s="1">
-        <v>16.501197</v>
+        <v>16.501197000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>905.608000</v>
+        <v>905.60799999999995</v>
       </c>
       <c r="D6" s="1">
-        <v>-192.782000</v>
+        <v>-192.78200000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>59414.051178</v>
+        <v>59414.051178000002</v>
       </c>
       <c r="G6" s="1">
-        <v>16.503903</v>
+        <v>16.503903000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>921.938000</v>
+        <v>921.93799999999999</v>
       </c>
       <c r="I6" s="1">
-        <v>-163.155000</v>
+        <v>-163.155</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>59424.200847</v>
@@ -1539,178 +1955,178 @@
         <v>16.506722</v>
       </c>
       <c r="M6" s="1">
-        <v>942.516000</v>
+        <v>942.51599999999996</v>
       </c>
       <c r="N6" s="1">
-        <v>-117.110000</v>
+        <v>-117.11</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>59435.425775</v>
+        <v>59435.425775000003</v>
       </c>
       <c r="Q6" s="1">
-        <v>16.509840</v>
+        <v>16.509840000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>948.893000</v>
+        <v>948.89300000000003</v>
       </c>
       <c r="S6" s="1">
-        <v>-102.250000</v>
+        <v>-102.25</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>59445.957825</v>
+        <v>59445.957824999998</v>
       </c>
       <c r="V6" s="1">
-        <v>16.512766</v>
+        <v>16.512765999999999</v>
       </c>
       <c r="W6" s="1">
-        <v>955.306000</v>
+        <v>955.30600000000004</v>
       </c>
       <c r="X6" s="1">
-        <v>-89.017200</v>
+        <v>-89.017200000000003</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>59456.393154</v>
+        <v>59456.393153999998</v>
       </c>
       <c r="AA6" s="1">
-        <v>16.515665</v>
+        <v>16.515664999999998</v>
       </c>
       <c r="AB6" s="1">
-        <v>962.401000</v>
+        <v>962.40099999999995</v>
       </c>
       <c r="AC6" s="1">
-        <v>-80.003100</v>
+        <v>-80.003100000000003</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
         <v>59466.951491</v>
       </c>
       <c r="AF6" s="1">
-        <v>16.518598</v>
+        <v>16.518598000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>967.420000</v>
+        <v>967.42</v>
       </c>
       <c r="AH6" s="1">
-        <v>-79.867400</v>
+        <v>-79.867400000000004</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>59477.753898</v>
+        <v>59477.753898000003</v>
       </c>
       <c r="AK6" s="1">
-        <v>16.521598</v>
+        <v>16.521598000000001</v>
       </c>
       <c r="AL6" s="1">
-        <v>975.532000</v>
+        <v>975.53200000000004</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.845100</v>
+        <v>-87.845100000000002</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>59488.373241</v>
+        <v>59488.373241000001</v>
       </c>
       <c r="AP6" s="1">
-        <v>16.524548</v>
+        <v>16.524547999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>984.868000</v>
+        <v>984.86800000000005</v>
       </c>
       <c r="AR6" s="1">
-        <v>-102.962000</v>
+        <v>-102.962</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>59499.406218</v>
+        <v>59499.406217999996</v>
       </c>
       <c r="AU6" s="1">
-        <v>16.527613</v>
+        <v>16.527612999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>996.479000</v>
+        <v>996.47900000000004</v>
       </c>
       <c r="AW6" s="1">
-        <v>-124.606000</v>
+        <v>-124.60599999999999</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>59510.087563</v>
+        <v>59510.087563000001</v>
       </c>
       <c r="AZ6" s="1">
-        <v>16.530580</v>
+        <v>16.53058</v>
       </c>
       <c r="BA6" s="1">
-        <v>1006.260000</v>
+        <v>1006.26</v>
       </c>
       <c r="BB6" s="1">
-        <v>-143.405000</v>
+        <v>-143.405</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>59521.037767</v>
+        <v>59521.037767000002</v>
       </c>
       <c r="BE6" s="1">
-        <v>16.533622</v>
+        <v>16.533622000000001</v>
       </c>
       <c r="BF6" s="1">
-        <v>1052.190000</v>
+        <v>1052.19</v>
       </c>
       <c r="BG6" s="1">
-        <v>-228.060000</v>
+        <v>-228.06</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>59532.580637</v>
+        <v>59532.580636999999</v>
       </c>
       <c r="BJ6" s="1">
         <v>16.536828</v>
       </c>
       <c r="BK6" s="1">
-        <v>1132.330000</v>
+        <v>1132.33</v>
       </c>
       <c r="BL6" s="1">
-        <v>-363.282000</v>
+        <v>-363.28199999999998</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>59543.913230</v>
+        <v>59543.913229999998</v>
       </c>
       <c r="BO6" s="1">
-        <v>16.539976</v>
+        <v>16.539975999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1264.120000</v>
+        <v>1264.1199999999999</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-571.631000</v>
+        <v>-571.63099999999997</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
         <v>59554.291522</v>
@@ -1719,407 +2135,407 @@
         <v>16.542859</v>
       </c>
       <c r="BU6" s="1">
-        <v>1411.710000</v>
+        <v>1411.71</v>
       </c>
       <c r="BV6" s="1">
-        <v>-794.288000</v>
+        <v>-794.28800000000001</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
         <v>59565.038365</v>
       </c>
       <c r="BY6" s="1">
-        <v>16.545844</v>
+        <v>16.545843999999999</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1573.300000</v>
+        <v>1573.3</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1025.530000</v>
+        <v>-1025.53</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>59576.472115</v>
+        <v>59576.472114999997</v>
       </c>
       <c r="CD6" s="1">
-        <v>16.549020</v>
+        <v>16.549019999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>1978.780000</v>
+        <v>1978.78</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1566.040000</v>
+        <v>-1566.04</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>59404.650504</v>
+        <v>59404.650503999997</v>
       </c>
       <c r="B7" s="1">
-        <v>16.501292</v>
+        <v>16.501291999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>905.508000</v>
+        <v>905.50800000000004</v>
       </c>
       <c r="D7" s="1">
-        <v>-192.924000</v>
+        <v>-192.92400000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>59414.739625</v>
+        <v>59414.739625000002</v>
       </c>
       <c r="G7" s="1">
-        <v>16.504094</v>
+        <v>16.504093999999998</v>
       </c>
       <c r="H7" s="1">
-        <v>921.978000</v>
+        <v>921.97799999999995</v>
       </c>
       <c r="I7" s="1">
-        <v>-163.010000</v>
+        <v>-163.01</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>59424.895707</v>
+        <v>59424.895707000003</v>
       </c>
       <c r="L7" s="1">
-        <v>16.506915</v>
+        <v>16.506914999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>942.538000</v>
+        <v>942.53800000000001</v>
       </c>
       <c r="N7" s="1">
-        <v>-117.157000</v>
+        <v>-117.157</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>59435.773470</v>
+        <v>59435.77347</v>
       </c>
       <c r="Q7" s="1">
-        <v>16.509937</v>
+        <v>16.509937000000001</v>
       </c>
       <c r="R7" s="1">
-        <v>948.904000</v>
+        <v>948.904</v>
       </c>
       <c r="S7" s="1">
-        <v>-102.220000</v>
+        <v>-102.22</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>59446.299103</v>
+        <v>59446.299102999998</v>
       </c>
       <c r="V7" s="1">
-        <v>16.512861</v>
+        <v>16.512861000000001</v>
       </c>
       <c r="W7" s="1">
-        <v>955.238000</v>
+        <v>955.23800000000006</v>
       </c>
       <c r="X7" s="1">
-        <v>-89.090300</v>
+        <v>-89.090299999999999</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>59456.743329</v>
+        <v>59456.743328999997</v>
       </c>
       <c r="AA7" s="1">
-        <v>16.515762</v>
+        <v>16.515761999999999</v>
       </c>
       <c r="AB7" s="1">
-        <v>962.376000</v>
+        <v>962.37599999999998</v>
       </c>
       <c r="AC7" s="1">
-        <v>-80.032800</v>
+        <v>-80.032799999999995</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>59467.610211</v>
+        <v>59467.610210999999</v>
       </c>
       <c r="AF7" s="1">
-        <v>16.518781</v>
+        <v>16.518781000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>967.429000</v>
+        <v>967.42899999999997</v>
       </c>
       <c r="AH7" s="1">
-        <v>-79.850700</v>
+        <v>-79.850700000000003</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>59478.132843</v>
+        <v>59478.132842999999</v>
       </c>
       <c r="AK7" s="1">
         <v>16.521704</v>
       </c>
       <c r="AL7" s="1">
-        <v>975.545000</v>
+        <v>975.54499999999996</v>
       </c>
       <c r="AM7" s="1">
-        <v>-87.839700</v>
+        <v>-87.839699999999993</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>59488.773482</v>
+        <v>59488.773481999997</v>
       </c>
       <c r="AP7" s="1">
         <v>16.524659</v>
       </c>
       <c r="AQ7" s="1">
-        <v>984.887000</v>
+        <v>984.88699999999994</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.949000</v>
+        <v>-102.949</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>59499.772264</v>
+        <v>59499.772263999999</v>
       </c>
       <c r="AU7" s="1">
-        <v>16.527715</v>
+        <v>16.527715000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>996.479000</v>
+        <v>996.47900000000004</v>
       </c>
       <c r="AW7" s="1">
-        <v>-124.607000</v>
+        <v>-124.607</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>59510.444861</v>
+        <v>59510.444861000004</v>
       </c>
       <c r="AZ7" s="1">
-        <v>16.530679</v>
+        <v>16.530678999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>1006.270000</v>
+        <v>1006.27</v>
       </c>
       <c r="BB7" s="1">
-        <v>-143.396000</v>
+        <v>-143.39599999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>59521.397372</v>
+        <v>59521.397371999999</v>
       </c>
       <c r="BE7" s="1">
         <v>16.533721</v>
       </c>
       <c r="BF7" s="1">
-        <v>1052.180000</v>
+        <v>1052.18</v>
       </c>
       <c r="BG7" s="1">
-        <v>-228.057000</v>
+        <v>-228.05699999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>59533.004237</v>
+        <v>59533.004237000001</v>
       </c>
       <c r="BJ7" s="1">
         <v>16.536946</v>
       </c>
       <c r="BK7" s="1">
-        <v>1132.310000</v>
+        <v>1132.31</v>
       </c>
       <c r="BL7" s="1">
-        <v>-363.261000</v>
+        <v>-363.26100000000002</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>59544.292703</v>
+        <v>59544.292702999999</v>
       </c>
       <c r="BO7" s="1">
-        <v>16.540081</v>
+        <v>16.540081000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1264.170000</v>
+        <v>1264.17</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-571.660000</v>
+        <v>-571.66</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>59554.702208</v>
+        <v>59554.702208000002</v>
       </c>
       <c r="BT7" s="1">
         <v>16.542973</v>
       </c>
       <c r="BU7" s="1">
-        <v>1411.750000</v>
+        <v>1411.75</v>
       </c>
       <c r="BV7" s="1">
-        <v>-794.276000</v>
+        <v>-794.27599999999995</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>59565.460931</v>
+        <v>59565.460931000001</v>
       </c>
       <c r="BY7" s="1">
-        <v>16.545961</v>
+        <v>16.545960999999998</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1573.320000</v>
+        <v>1573.32</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1025.400000</v>
+        <v>-1025.4000000000001</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>59577.014269</v>
+        <v>59577.014268999999</v>
       </c>
       <c r="CD7" s="1">
-        <v>16.549171</v>
+        <v>16.549171000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>1980.790000</v>
+        <v>1980.79</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1565.240000</v>
+        <v>-1565.24</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
         <v>59405.334486</v>
       </c>
       <c r="B8" s="1">
-        <v>16.501482</v>
+        <v>16.501481999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>905.409000</v>
+        <v>905.40899999999999</v>
       </c>
       <c r="D8" s="1">
-        <v>-192.874000</v>
+        <v>-192.874</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>59415.083850</v>
+        <v>59415.083850000003</v>
       </c>
       <c r="G8" s="1">
-        <v>16.504190</v>
+        <v>16.504190000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>921.710000</v>
+        <v>921.71</v>
       </c>
       <c r="I8" s="1">
-        <v>-163.339000</v>
+        <v>-163.339</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>59425.246378</v>
+        <v>59425.246378000003</v>
       </c>
       <c r="L8" s="1">
-        <v>16.507013</v>
+        <v>16.507013000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>942.689000</v>
+        <v>942.68899999999996</v>
       </c>
       <c r="N8" s="1">
-        <v>-116.991000</v>
+        <v>-116.991</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>59436.124671</v>
+        <v>59436.124670999998</v>
       </c>
       <c r="Q8" s="1">
-        <v>16.510035</v>
+        <v>16.510034999999998</v>
       </c>
       <c r="R8" s="1">
-        <v>948.930000</v>
+        <v>948.93</v>
       </c>
       <c r="S8" s="1">
-        <v>-102.222000</v>
+        <v>-102.22199999999999</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>59446.956768</v>
+        <v>59446.956767999996</v>
       </c>
       <c r="V8" s="1">
-        <v>16.513044</v>
+        <v>16.513044000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>955.176000</v>
+        <v>955.17600000000004</v>
       </c>
       <c r="X8" s="1">
-        <v>-89.047800</v>
+        <v>-89.047799999999995</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>59457.402512</v>
+        <v>59457.402512000001</v>
       </c>
       <c r="AA8" s="1">
-        <v>16.515945</v>
+        <v>16.515944999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>962.414000</v>
+        <v>962.41399999999999</v>
       </c>
       <c r="AC8" s="1">
-        <v>-79.950700</v>
+        <v>-79.950699999999998</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>59467.984200</v>
+        <v>59467.984199999999</v>
       </c>
       <c r="AF8" s="1">
-        <v>16.518885</v>
+        <v>16.518885000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>967.440000</v>
+        <v>967.44</v>
       </c>
       <c r="AH8" s="1">
-        <v>-79.844100</v>
+        <v>-79.844099999999997</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
         <v>59478.481988</v>
@@ -2128,180 +2544,180 @@
         <v>16.521801</v>
       </c>
       <c r="AL8" s="1">
-        <v>975.528000</v>
+        <v>975.52800000000002</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.872300</v>
+        <v>-87.872299999999996</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>59489.157879</v>
+        <v>59489.157878999999</v>
       </c>
       <c r="AP8" s="1">
         <v>16.524766</v>
       </c>
       <c r="AQ8" s="1">
-        <v>984.878000</v>
+        <v>984.87800000000004</v>
       </c>
       <c r="AR8" s="1">
-        <v>-102.934000</v>
+        <v>-102.934</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>59500.133852</v>
+        <v>59500.133851999999</v>
       </c>
       <c r="AU8" s="1">
         <v>16.527815</v>
       </c>
       <c r="AV8" s="1">
-        <v>996.477000</v>
+        <v>996.47699999999998</v>
       </c>
       <c r="AW8" s="1">
-        <v>-124.609000</v>
+        <v>-124.60899999999999</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>59510.866814</v>
+        <v>59510.866814000001</v>
       </c>
       <c r="AZ8" s="1">
-        <v>16.530796</v>
+        <v>16.530795999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>1006.270000</v>
+        <v>1006.27</v>
       </c>
       <c r="BB8" s="1">
-        <v>-143.407000</v>
+        <v>-143.40700000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>59521.820459</v>
+        <v>59521.820459000002</v>
       </c>
       <c r="BE8" s="1">
         <v>16.533839</v>
       </c>
       <c r="BF8" s="1">
-        <v>1052.180000</v>
+        <v>1052.18</v>
       </c>
       <c r="BG8" s="1">
-        <v>-228.067000</v>
+        <v>-228.06700000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
         <v>59533.347985</v>
       </c>
       <c r="BJ8" s="1">
-        <v>16.537041</v>
+        <v>16.537040999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1132.320000</v>
+        <v>1132.32</v>
       </c>
       <c r="BL8" s="1">
-        <v>-363.288000</v>
+        <v>-363.28800000000001</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>59544.711790</v>
+        <v>59544.711790000001</v>
       </c>
       <c r="BO8" s="1">
         <v>16.540198</v>
       </c>
       <c r="BP8" s="1">
-        <v>1264.150000</v>
+        <v>1264.1500000000001</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-571.643000</v>
+        <v>-571.64300000000003</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>59555.117359</v>
+        <v>59555.117359000003</v>
       </c>
       <c r="BT8" s="1">
-        <v>16.543088</v>
+        <v>16.543088000000001</v>
       </c>
       <c r="BU8" s="1">
-        <v>1411.870000</v>
+        <v>1411.87</v>
       </c>
       <c r="BV8" s="1">
-        <v>-794.302000</v>
+        <v>-794.30200000000002</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>59565.878078</v>
+        <v>59565.878078000002</v>
       </c>
       <c r="BY8" s="1">
         <v>16.546077</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1573.280000</v>
+        <v>1573.28</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1025.440000</v>
+        <v>-1025.44</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>59577.548931</v>
+        <v>59577.548930999998</v>
       </c>
       <c r="CD8" s="1">
-        <v>16.549319</v>
+        <v>16.549319000000001</v>
       </c>
       <c r="CE8" s="1">
-        <v>1978.950000</v>
+        <v>1978.95</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1565.060000</v>
+        <v>-1565.06</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>59405.678710</v>
+        <v>59405.67871</v>
       </c>
       <c r="B9" s="1">
-        <v>16.501577</v>
+        <v>16.501577000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>905.536000</v>
+        <v>905.53599999999994</v>
       </c>
       <c r="D9" s="1">
-        <v>-192.910000</v>
+        <v>-192.91</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>59415.429064</v>
+        <v>59415.429064000004</v>
       </c>
       <c r="G9" s="1">
         <v>16.504286</v>
       </c>
       <c r="H9" s="1">
-        <v>921.649000</v>
+        <v>921.649</v>
       </c>
       <c r="I9" s="1">
-        <v>-163.127000</v>
+        <v>-163.12700000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <v>59425.593083</v>
@@ -2310,28 +2726,28 @@
         <v>16.507109</v>
       </c>
       <c r="M9" s="1">
-        <v>942.544000</v>
+        <v>942.54399999999998</v>
       </c>
       <c r="N9" s="1">
-        <v>-117.114000</v>
+        <v>-117.114</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>59436.787326</v>
+        <v>59436.787325999998</v>
       </c>
       <c r="Q9" s="1">
-        <v>16.510219</v>
+        <v>16.510218999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>948.962000</v>
+        <v>948.96199999999999</v>
       </c>
       <c r="S9" s="1">
-        <v>-102.249000</v>
+        <v>-102.249</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
         <v>59447.329758</v>
@@ -2340,1161 +2756,1161 @@
         <v>16.513147</v>
       </c>
       <c r="W9" s="1">
-        <v>955.197000</v>
+        <v>955.197</v>
       </c>
       <c r="X9" s="1">
-        <v>-88.968200</v>
+        <v>-88.968199999999996</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>59457.788898</v>
+        <v>59457.788897999999</v>
       </c>
       <c r="AA9" s="1">
-        <v>16.516052</v>
+        <v>16.516051999999998</v>
       </c>
       <c r="AB9" s="1">
-        <v>962.481000</v>
+        <v>962.48099999999999</v>
       </c>
       <c r="AC9" s="1">
-        <v>-80.063300</v>
+        <v>-80.063299999999998</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>59468.325906</v>
+        <v>59468.325905999998</v>
       </c>
       <c r="AF9" s="1">
-        <v>16.518979</v>
+        <v>16.518979000000002</v>
       </c>
       <c r="AG9" s="1">
-        <v>967.421000</v>
+        <v>967.42100000000005</v>
       </c>
       <c r="AH9" s="1">
-        <v>-79.847100</v>
+        <v>-79.847099999999998</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>59478.829686</v>
+        <v>59478.829685999997</v>
       </c>
       <c r="AK9" s="1">
-        <v>16.521897</v>
+        <v>16.521896999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>975.550000</v>
+        <v>975.55</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.868100</v>
+        <v>-87.868099999999998</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>59489.517519</v>
+        <v>59489.517519000001</v>
       </c>
       <c r="AP9" s="1">
-        <v>16.524866</v>
+        <v>16.524865999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>984.875000</v>
+        <v>984.875</v>
       </c>
       <c r="AR9" s="1">
-        <v>-102.950000</v>
+        <v>-102.95</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>59500.563879</v>
+        <v>59500.563879000001</v>
       </c>
       <c r="AU9" s="1">
-        <v>16.527934</v>
+        <v>16.527933999999998</v>
       </c>
       <c r="AV9" s="1">
-        <v>996.449000</v>
+        <v>996.44899999999996</v>
       </c>
       <c r="AW9" s="1">
-        <v>-124.586000</v>
+        <v>-124.586</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>59511.163421</v>
+        <v>59511.163420999997</v>
       </c>
       <c r="AZ9" s="1">
-        <v>16.530879</v>
+        <v>16.530878999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>1006.270000</v>
+        <v>1006.27</v>
       </c>
       <c r="BB9" s="1">
-        <v>-143.409000</v>
+        <v>-143.40899999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
         <v>59522.122527</v>
       </c>
       <c r="BE9" s="1">
-        <v>16.533923</v>
+        <v>16.533923000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1052.220000</v>
+        <v>1052.22</v>
       </c>
       <c r="BG9" s="1">
-        <v>-228.057000</v>
+        <v>-228.05699999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
         <v>59533.721436</v>
       </c>
       <c r="BJ9" s="1">
-        <v>16.537145</v>
+        <v>16.537144999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1132.320000</v>
+        <v>1132.32</v>
       </c>
       <c r="BL9" s="1">
-        <v>-363.243000</v>
+        <v>-363.24299999999999</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>59545.111070</v>
+        <v>59545.111069999999</v>
       </c>
       <c r="BO9" s="1">
-        <v>16.540309</v>
+        <v>16.540309000000001</v>
       </c>
       <c r="BP9" s="1">
-        <v>1264.160000</v>
+        <v>1264.1600000000001</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-571.651000</v>
+        <v>-571.65099999999995</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>59555.555822</v>
+        <v>59555.555822000002</v>
       </c>
       <c r="BT9" s="1">
-        <v>16.543210</v>
+        <v>16.543209999999998</v>
       </c>
       <c r="BU9" s="1">
-        <v>1411.980000</v>
+        <v>1411.98</v>
       </c>
       <c r="BV9" s="1">
-        <v>-794.252000</v>
+        <v>-794.25199999999995</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>59566.333888</v>
+        <v>59566.333888000001</v>
       </c>
       <c r="BY9" s="1">
-        <v>16.546204</v>
+        <v>16.546203999999999</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1573.330000</v>
+        <v>1573.33</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1025.320000</v>
+        <v>-1025.32</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>59578.093040</v>
+        <v>59578.09304</v>
       </c>
       <c r="CD9" s="1">
-        <v>16.549470</v>
+        <v>16.549469999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>1980.290000</v>
+        <v>1980.29</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1566.320000</v>
+        <v>-1566.32</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>59406.018964</v>
+        <v>59406.018964000003</v>
       </c>
       <c r="B10" s="1">
-        <v>16.501672</v>
+        <v>16.501671999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>905.440000</v>
+        <v>905.44</v>
       </c>
       <c r="D10" s="1">
-        <v>-192.730000</v>
+        <v>-192.73</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>59416.076343</v>
+        <v>59416.076343000001</v>
       </c>
       <c r="G10" s="1">
-        <v>16.504466</v>
+        <v>16.504466000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>921.459000</v>
+        <v>921.45899999999995</v>
       </c>
       <c r="I10" s="1">
-        <v>-163.237000</v>
+        <v>-163.23699999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
         <v>59426.236395</v>
       </c>
       <c r="L10" s="1">
-        <v>16.507288</v>
+        <v>16.507287999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>942.565000</v>
+        <v>942.56500000000005</v>
       </c>
       <c r="N10" s="1">
-        <v>-117.151000</v>
+        <v>-117.151</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
         <v>59437.168715</v>
       </c>
       <c r="Q10" s="1">
-        <v>16.510325</v>
+        <v>16.510325000000002</v>
       </c>
       <c r="R10" s="1">
-        <v>948.895000</v>
+        <v>948.89499999999998</v>
       </c>
       <c r="S10" s="1">
-        <v>-102.260000</v>
+        <v>-102.26</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>59447.672494</v>
+        <v>59447.672493999999</v>
       </c>
       <c r="V10" s="1">
-        <v>16.513242</v>
+        <v>16.513242000000002</v>
       </c>
       <c r="W10" s="1">
-        <v>955.161000</v>
+        <v>955.16099999999994</v>
       </c>
       <c r="X10" s="1">
-        <v>-88.934900</v>
+        <v>-88.934899999999999</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>59458.140065</v>
       </c>
       <c r="AA10" s="1">
-        <v>16.516150</v>
+        <v>16.51615</v>
       </c>
       <c r="AB10" s="1">
-        <v>962.385000</v>
+        <v>962.38499999999999</v>
       </c>
       <c r="AC10" s="1">
-        <v>-80.025800</v>
+        <v>-80.025800000000004</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>59468.671153</v>
+        <v>59468.671153000003</v>
       </c>
       <c r="AF10" s="1">
-        <v>16.519075</v>
+        <v>16.519075000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>967.460000</v>
+        <v>967.46</v>
       </c>
       <c r="AH10" s="1">
-        <v>-79.852900</v>
+        <v>-79.852900000000005</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>59479.247610</v>
+        <v>59479.247609999999</v>
       </c>
       <c r="AK10" s="1">
-        <v>16.522013</v>
+        <v>16.522013000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>975.521000</v>
+        <v>975.52099999999996</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.854600</v>
+        <v>-87.854600000000005</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>59489.941582</v>
+        <v>59489.941581999999</v>
       </c>
       <c r="AP10" s="1">
         <v>16.524984</v>
       </c>
       <c r="AQ10" s="1">
-        <v>984.863000</v>
+        <v>984.86300000000006</v>
       </c>
       <c r="AR10" s="1">
-        <v>-102.932000</v>
+        <v>-102.932</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>59500.865944</v>
+        <v>59500.865943999997</v>
       </c>
       <c r="AU10" s="1">
-        <v>16.528018</v>
+        <v>16.528017999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>996.470000</v>
+        <v>996.47</v>
       </c>
       <c r="AW10" s="1">
-        <v>-124.619000</v>
+        <v>-124.619</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>59511.522985</v>
+        <v>59511.522985000003</v>
       </c>
       <c r="AZ10" s="1">
-        <v>16.530979</v>
+        <v>16.530978999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>1006.280000</v>
+        <v>1006.28</v>
       </c>
       <c r="BB10" s="1">
-        <v>-143.415000</v>
+        <v>-143.41499999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>59522.485563</v>
+        <v>59522.485563000002</v>
       </c>
       <c r="BE10" s="1">
-        <v>16.534024</v>
+        <v>16.534023999999999</v>
       </c>
       <c r="BF10" s="1">
-        <v>1052.180000</v>
+        <v>1052.18</v>
       </c>
       <c r="BG10" s="1">
-        <v>-228.065000</v>
+        <v>-228.065</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>59534.099388</v>
+        <v>59534.099388000002</v>
       </c>
       <c r="BJ10" s="1">
-        <v>16.537250</v>
+        <v>16.53725</v>
       </c>
       <c r="BK10" s="1">
-        <v>1132.320000</v>
+        <v>1132.32</v>
       </c>
       <c r="BL10" s="1">
-        <v>-363.255000</v>
+        <v>-363.255</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>59545.533659</v>
+        <v>59545.533659000001</v>
       </c>
       <c r="BO10" s="1">
         <v>16.540426</v>
       </c>
       <c r="BP10" s="1">
-        <v>1264.130000</v>
+        <v>1264.1300000000001</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-571.681000</v>
+        <v>-571.68100000000004</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>59555.981390</v>
+        <v>59555.981390000001</v>
       </c>
       <c r="BT10" s="1">
-        <v>16.543328</v>
+        <v>16.543327999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>1412.040000</v>
+        <v>1412.04</v>
       </c>
       <c r="BV10" s="1">
-        <v>-794.111000</v>
+        <v>-794.11099999999999</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>59566.781777</v>
+        <v>59566.781776999997</v>
       </c>
       <c r="BY10" s="1">
-        <v>16.546328</v>
+        <v>16.546327999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1573.260000</v>
+        <v>1573.26</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1025.480000</v>
+        <v>-1025.48</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>59578.630705</v>
+        <v>59578.630705000003</v>
       </c>
       <c r="CD10" s="1">
-        <v>16.549620</v>
+        <v>16.549620000000001</v>
       </c>
       <c r="CE10" s="1">
-        <v>1979.600000</v>
+        <v>1979.6</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1564.390000</v>
+        <v>-1564.39</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>59406.675669</v>
+        <v>59406.675668999997</v>
       </c>
       <c r="B11" s="1">
-        <v>16.501854</v>
+        <v>16.501854000000002</v>
       </c>
       <c r="C11" s="1">
-        <v>905.618000</v>
+        <v>905.61800000000005</v>
       </c>
       <c r="D11" s="1">
-        <v>-192.863000</v>
+        <v>-192.863</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>59416.465703</v>
+        <v>59416.465703000002</v>
       </c>
       <c r="G11" s="1">
-        <v>16.504574</v>
+        <v>16.504574000000002</v>
       </c>
       <c r="H11" s="1">
-        <v>921.740000</v>
+        <v>921.74</v>
       </c>
       <c r="I11" s="1">
-        <v>-163.178000</v>
+        <v>-163.178</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>59426.626746</v>
+        <v>59426.626746000002</v>
       </c>
       <c r="L11" s="1">
         <v>16.507396</v>
       </c>
       <c r="M11" s="1">
-        <v>942.607000</v>
+        <v>942.60699999999997</v>
       </c>
       <c r="N11" s="1">
-        <v>-116.992000</v>
+        <v>-116.992</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>59437.517403</v>
+        <v>59437.517402999998</v>
       </c>
       <c r="Q11" s="1">
-        <v>16.510422</v>
+        <v>16.510421999999998</v>
       </c>
       <c r="R11" s="1">
-        <v>948.892000</v>
+        <v>948.89200000000005</v>
       </c>
       <c r="S11" s="1">
-        <v>-102.262000</v>
+        <v>-102.262</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>59448.016716</v>
+        <v>59448.016715999998</v>
       </c>
       <c r="V11" s="1">
-        <v>16.513338</v>
+        <v>16.513338000000001</v>
       </c>
       <c r="W11" s="1">
-        <v>955.201000</v>
+        <v>955.20100000000002</v>
       </c>
       <c r="X11" s="1">
-        <v>-89.078700</v>
+        <v>-89.078699999999998</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>59458.488256</v>
+        <v>59458.488255999997</v>
       </c>
       <c r="AA11" s="1">
         <v>16.516247</v>
       </c>
       <c r="AB11" s="1">
-        <v>962.381000</v>
+        <v>962.38099999999997</v>
       </c>
       <c r="AC11" s="1">
-        <v>-80.095000</v>
+        <v>-80.094999999999999</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>59469.091765</v>
+        <v>59469.091764999997</v>
       </c>
       <c r="AF11" s="1">
         <v>16.519192</v>
       </c>
       <c r="AG11" s="1">
-        <v>967.465000</v>
+        <v>967.46500000000003</v>
       </c>
       <c r="AH11" s="1">
-        <v>-79.827300</v>
+        <v>-79.827299999999994</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>59479.524580</v>
+        <v>59479.524579999998</v>
       </c>
       <c r="AK11" s="1">
-        <v>16.522090</v>
+        <v>16.522089999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>975.529000</v>
+        <v>975.529</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.861000</v>
+        <v>-87.861000000000004</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>59490.239654</v>
+        <v>59490.239653999997</v>
       </c>
       <c r="AP11" s="1">
         <v>16.525067</v>
       </c>
       <c r="AQ11" s="1">
-        <v>984.867000</v>
+        <v>984.86699999999996</v>
       </c>
       <c r="AR11" s="1">
-        <v>-102.950000</v>
+        <v>-102.95</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>59501.231494</v>
       </c>
       <c r="AU11" s="1">
-        <v>16.528120</v>
+        <v>16.528120000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>996.491000</v>
+        <v>996.49099999999999</v>
       </c>
       <c r="AW11" s="1">
-        <v>-124.602000</v>
+        <v>-124.602</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>59511.882625</v>
+        <v>59511.882624999998</v>
       </c>
       <c r="AZ11" s="1">
-        <v>16.531079</v>
+        <v>16.531078999999998</v>
       </c>
       <c r="BA11" s="1">
-        <v>1006.270000</v>
+        <v>1006.27</v>
       </c>
       <c r="BB11" s="1">
-        <v>-143.400000</v>
+        <v>-143.4</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>59522.845659</v>
+        <v>59522.845658999999</v>
       </c>
       <c r="BE11" s="1">
-        <v>16.534124</v>
+        <v>16.534123999999998</v>
       </c>
       <c r="BF11" s="1">
-        <v>1052.210000</v>
+        <v>1052.21</v>
       </c>
       <c r="BG11" s="1">
-        <v>-228.073000</v>
+        <v>-228.07300000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>59534.871163</v>
+        <v>59534.871163000003</v>
       </c>
       <c r="BJ11" s="1">
         <v>16.537464</v>
       </c>
       <c r="BK11" s="1">
-        <v>1132.330000</v>
+        <v>1132.33</v>
       </c>
       <c r="BL11" s="1">
-        <v>-363.262000</v>
+        <v>-363.262</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>59545.926028</v>
+        <v>59545.926028000002</v>
       </c>
       <c r="BO11" s="1">
-        <v>16.540535</v>
+        <v>16.540534999999998</v>
       </c>
       <c r="BP11" s="1">
-        <v>1264.160000</v>
+        <v>1264.1600000000001</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-571.657000</v>
+        <v>-571.65700000000004</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>59556.396541</v>
+        <v>59556.396541000002</v>
       </c>
       <c r="BT11" s="1">
         <v>16.543443</v>
       </c>
       <c r="BU11" s="1">
-        <v>1412.070000</v>
+        <v>1412.07</v>
       </c>
       <c r="BV11" s="1">
-        <v>-794.035000</v>
+        <v>-794.03499999999997</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>59567.239092</v>
+        <v>59567.239092000003</v>
       </c>
       <c r="BY11" s="1">
-        <v>16.546455</v>
+        <v>16.546455000000002</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1573.320000</v>
+        <v>1573.32</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1025.420000</v>
+        <v>-1025.42</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>59579.483328</v>
+        <v>59579.483328000002</v>
       </c>
       <c r="CD11" s="1">
-        <v>16.549856</v>
+        <v>16.549855999999998</v>
       </c>
       <c r="CE11" s="1">
-        <v>1981.070000</v>
+        <v>1981.07</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1565.760000</v>
+        <v>-1565.76</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>59407.044195</v>
+        <v>59407.044195000002</v>
       </c>
       <c r="B12" s="1">
-        <v>16.501957</v>
+        <v>16.501957000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>905.454000</v>
+        <v>905.45399999999995</v>
       </c>
       <c r="D12" s="1">
-        <v>-192.708000</v>
+        <v>-192.708</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>59416.807942</v>
+        <v>59416.807941999999</v>
       </c>
       <c r="G12" s="1">
         <v>16.504669</v>
       </c>
       <c r="H12" s="1">
-        <v>922.079000</v>
+        <v>922.07899999999995</v>
       </c>
       <c r="I12" s="1">
-        <v>-163.252000</v>
+        <v>-163.25200000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>59426.972952</v>
+        <v>59426.972951999996</v>
       </c>
       <c r="L12" s="1">
-        <v>16.507492</v>
+        <v>16.507491999999999</v>
       </c>
       <c r="M12" s="1">
-        <v>942.527000</v>
+        <v>942.52700000000004</v>
       </c>
       <c r="N12" s="1">
-        <v>-117.039000</v>
+        <v>-117.039</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>59437.865631</v>
+        <v>59437.865631000001</v>
       </c>
       <c r="Q12" s="1">
-        <v>16.510518</v>
+        <v>16.510518000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>948.935000</v>
+        <v>948.93499999999995</v>
       </c>
       <c r="S12" s="1">
-        <v>-102.245000</v>
+        <v>-102.245</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
         <v>59448.432364</v>
       </c>
       <c r="V12" s="1">
-        <v>16.513453</v>
+        <v>16.513452999999998</v>
       </c>
       <c r="W12" s="1">
-        <v>955.228000</v>
+        <v>955.22799999999995</v>
       </c>
       <c r="X12" s="1">
-        <v>-89.035200</v>
+        <v>-89.035200000000003</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>59458.907376</v>
+        <v>59458.907376000003</v>
       </c>
       <c r="AA12" s="1">
-        <v>16.516363</v>
+        <v>16.516362999999998</v>
       </c>
       <c r="AB12" s="1">
-        <v>962.427000</v>
+        <v>962.42700000000002</v>
       </c>
       <c r="AC12" s="1">
-        <v>-80.018700</v>
+        <v>-80.018699999999995</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>59469.382421</v>
+        <v>59469.382421000002</v>
       </c>
       <c r="AF12" s="1">
-        <v>16.519273</v>
+        <v>16.519272999999998</v>
       </c>
       <c r="AG12" s="1">
-        <v>967.449000</v>
+        <v>967.44899999999996</v>
       </c>
       <c r="AH12" s="1">
-        <v>-79.883000</v>
+        <v>-79.882999999999996</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>59479.877270</v>
+        <v>59479.877269999997</v>
       </c>
       <c r="AK12" s="1">
         <v>16.522188</v>
       </c>
       <c r="AL12" s="1">
-        <v>975.532000</v>
+        <v>975.53200000000004</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.844000</v>
+        <v>-87.843999999999994</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>59490.599254</v>
+        <v>59490.599254000001</v>
       </c>
       <c r="AP12" s="1">
-        <v>16.525166</v>
+        <v>16.525165999999999</v>
       </c>
       <c r="AQ12" s="1">
-        <v>984.886000</v>
+        <v>984.88599999999997</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.956000</v>
+        <v>-102.956</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>59501.599030</v>
+        <v>59501.599029999998</v>
       </c>
       <c r="AU12" s="1">
         <v>16.528222</v>
       </c>
       <c r="AV12" s="1">
-        <v>996.468000</v>
+        <v>996.46799999999996</v>
       </c>
       <c r="AW12" s="1">
-        <v>-124.605000</v>
+        <v>-124.605</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>59512.601288</v>
+        <v>59512.601287999998</v>
       </c>
       <c r="AZ12" s="1">
         <v>16.531278</v>
       </c>
       <c r="BA12" s="1">
-        <v>1006.260000</v>
+        <v>1006.26</v>
       </c>
       <c r="BB12" s="1">
-        <v>-143.405000</v>
+        <v>-143.405</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
         <v>59523.567337</v>
       </c>
       <c r="BE12" s="1">
-        <v>16.534324</v>
+        <v>16.534324000000002</v>
       </c>
       <c r="BF12" s="1">
-        <v>1052.210000</v>
+        <v>1052.21</v>
       </c>
       <c r="BG12" s="1">
-        <v>-228.065000</v>
+        <v>-228.065</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>59535.242471</v>
+        <v>59535.242470999998</v>
       </c>
       <c r="BJ12" s="1">
-        <v>16.537567</v>
+        <v>16.537566999999999</v>
       </c>
       <c r="BK12" s="1">
-        <v>1132.310000</v>
+        <v>1132.31</v>
       </c>
       <c r="BL12" s="1">
-        <v>-363.237000</v>
+        <v>-363.23700000000002</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
         <v>59546.351099</v>
       </c>
       <c r="BO12" s="1">
-        <v>16.540653</v>
+        <v>16.540652999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1264.110000</v>
+        <v>1264.1099999999999</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-571.666000</v>
+        <v>-571.66600000000005</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>59556.827069</v>
+        <v>59556.827068999999</v>
       </c>
       <c r="BT12" s="1">
-        <v>16.543563</v>
+        <v>16.543562999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>1412.070000</v>
+        <v>1412.07</v>
       </c>
       <c r="BV12" s="1">
-        <v>-794.001000</v>
+        <v>-794.00099999999998</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>59568.001440</v>
+        <v>59568.00144</v>
       </c>
       <c r="BY12" s="1">
-        <v>16.546667</v>
+        <v>16.546666999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1573.180000</v>
+        <v>1573.18</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1025.480000</v>
+        <v>-1025.48</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>59579.710494</v>
+        <v>59579.710493999999</v>
       </c>
       <c r="CD12" s="1">
-        <v>16.549920</v>
+        <v>16.54992</v>
       </c>
       <c r="CE12" s="1">
-        <v>1980.860000</v>
+        <v>1980.86</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1565.740000</v>
+        <v>-1565.74</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>59407.391394</v>
+        <v>59407.391393999998</v>
       </c>
       <c r="B13" s="1">
         <v>16.502053</v>
       </c>
       <c r="C13" s="1">
-        <v>905.548000</v>
+        <v>905.548</v>
       </c>
       <c r="D13" s="1">
-        <v>-193.030000</v>
+        <v>-193.03</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>59417.152171</v>
+        <v>59417.152171000002</v>
       </c>
       <c r="G13" s="1">
-        <v>16.504764</v>
+        <v>16.504764000000002</v>
       </c>
       <c r="H13" s="1">
-        <v>921.521000</v>
+        <v>921.52099999999996</v>
       </c>
       <c r="I13" s="1">
-        <v>-163.273000</v>
+        <v>-163.273</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>59427.320648</v>
+        <v>59427.320648000001</v>
       </c>
       <c r="L13" s="1">
-        <v>16.507589</v>
+        <v>16.507588999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>942.545000</v>
+        <v>942.54499999999996</v>
       </c>
       <c r="N13" s="1">
-        <v>-117.110000</v>
+        <v>-117.11</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>59438.289177</v>
+        <v>59438.289176999999</v>
       </c>
       <c r="Q13" s="1">
-        <v>16.510636</v>
+        <v>16.510636000000002</v>
       </c>
       <c r="R13" s="1">
-        <v>948.939000</v>
+        <v>948.93899999999996</v>
       </c>
       <c r="S13" s="1">
-        <v>-102.214000</v>
+        <v>-102.214</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>59448.706157</v>
+        <v>59448.706157000001</v>
       </c>
       <c r="V13" s="1">
-        <v>16.513529</v>
+        <v>16.513528999999998</v>
       </c>
       <c r="W13" s="1">
-        <v>955.308000</v>
+        <v>955.30799999999999</v>
       </c>
       <c r="X13" s="1">
-        <v>-89.037600</v>
+        <v>-89.037599999999998</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>59459.185134</v>
+        <v>59459.185133999999</v>
       </c>
       <c r="AA13" s="1">
-        <v>16.516440</v>
+        <v>16.516439999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>962.416000</v>
+        <v>962.41600000000005</v>
       </c>
       <c r="AC13" s="1">
-        <v>-80.010100</v>
+        <v>-80.010099999999994</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>59469.722177</v>
+        <v>59469.722177000003</v>
       </c>
       <c r="AF13" s="1">
-        <v>16.519367</v>
+        <v>16.519366999999999</v>
       </c>
       <c r="AG13" s="1">
-        <v>967.497000</v>
+        <v>967.49699999999996</v>
       </c>
       <c r="AH13" s="1">
-        <v>-79.850900</v>
+        <v>-79.850899999999996</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>59480.226915</v>
+        <v>59480.226914999999</v>
       </c>
       <c r="AK13" s="1">
         <v>16.522285</v>
       </c>
       <c r="AL13" s="1">
-        <v>975.552000</v>
+        <v>975.55200000000002</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.889200</v>
+        <v>-87.889200000000002</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>59490.956372</v>
+        <v>59490.956372000001</v>
       </c>
       <c r="AP13" s="1">
-        <v>16.525266</v>
+        <v>16.525265999999998</v>
       </c>
       <c r="AQ13" s="1">
-        <v>984.889000</v>
+        <v>984.88900000000001</v>
       </c>
       <c r="AR13" s="1">
-        <v>-102.952000</v>
+        <v>-102.952</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>59502.323189</v>
+        <v>59502.323189000002</v>
       </c>
       <c r="AU13" s="1">
         <v>16.528423</v>
       </c>
       <c r="AV13" s="1">
-        <v>996.475000</v>
+        <v>996.47500000000002</v>
       </c>
       <c r="AW13" s="1">
-        <v>-124.628000</v>
+        <v>-124.628</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>59512.957912</v>
+        <v>59512.957911999998</v>
       </c>
       <c r="AZ13" s="1">
-        <v>16.531377</v>
+        <v>16.531376999999999</v>
       </c>
       <c r="BA13" s="1">
-        <v>1006.260000</v>
+        <v>1006.26</v>
       </c>
       <c r="BB13" s="1">
-        <v>-143.395000</v>
+        <v>-143.39500000000001</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>59523.941816</v>
+        <v>59523.941815999999</v>
       </c>
       <c r="BE13" s="1">
-        <v>16.534428</v>
+        <v>16.534427999999998</v>
       </c>
       <c r="BF13" s="1">
-        <v>1052.180000</v>
+        <v>1052.18</v>
       </c>
       <c r="BG13" s="1">
-        <v>-228.062000</v>
+        <v>-228.06200000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>59535.617674</v>
+        <v>59535.617674000001</v>
       </c>
       <c r="BJ13" s="1">
-        <v>16.537672</v>
+        <v>16.537672000000001</v>
       </c>
       <c r="BK13" s="1">
-        <v>1132.310000</v>
+        <v>1132.31</v>
       </c>
       <c r="BL13" s="1">
-        <v>-363.277000</v>
+        <v>-363.27699999999999</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
         <v>59547.061835</v>
@@ -3503,1208 +3919,1208 @@
         <v>16.540851</v>
       </c>
       <c r="BP13" s="1">
-        <v>1264.140000</v>
+        <v>1264.1400000000001</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-571.638000</v>
+        <v>-571.63800000000003</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>59557.570076</v>
+        <v>59557.570076000004</v>
       </c>
       <c r="BT13" s="1">
-        <v>16.543769</v>
+        <v>16.543769000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>1412.100000</v>
+        <v>1412.1</v>
       </c>
       <c r="BV13" s="1">
-        <v>-793.845000</v>
+        <v>-793.84500000000003</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>59568.134367</v>
+        <v>59568.134366999999</v>
       </c>
       <c r="BY13" s="1">
-        <v>16.546704</v>
+        <v>16.546703999999998</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1573.350000</v>
+        <v>1573.35</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1025.400000</v>
+        <v>-1025.4000000000001</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>59580.229807</v>
+        <v>59580.229807000003</v>
       </c>
       <c r="CD13" s="1">
-        <v>16.550064</v>
+        <v>16.550063999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>1980.170000</v>
+        <v>1980.17</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1564.720000</v>
+        <v>-1564.72</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>59407.731154</v>
+        <v>59407.731154000001</v>
       </c>
       <c r="B14" s="1">
-        <v>16.502148</v>
+        <v>16.502147999999998</v>
       </c>
       <c r="C14" s="1">
-        <v>905.305000</v>
+        <v>905.30499999999995</v>
       </c>
       <c r="D14" s="1">
-        <v>-192.743000</v>
+        <v>-192.74299999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>59417.565333</v>
+        <v>59417.565332999999</v>
       </c>
       <c r="G14" s="1">
-        <v>16.504879</v>
+        <v>16.504878999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>921.561000</v>
+        <v>921.56100000000004</v>
       </c>
       <c r="I14" s="1">
-        <v>-163.180000</v>
+        <v>-163.18</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>59428.012073</v>
+        <v>59428.012072999998</v>
       </c>
       <c r="L14" s="1">
-        <v>16.507781</v>
+        <v>16.507781000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>942.311000</v>
+        <v>942.31100000000004</v>
       </c>
       <c r="N14" s="1">
-        <v>-117.041000</v>
+        <v>-117.041</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>59438.570445</v>
+        <v>59438.570444999998</v>
       </c>
       <c r="Q14" s="1">
         <v>16.510714</v>
       </c>
       <c r="R14" s="1">
-        <v>948.931000</v>
+        <v>948.93100000000004</v>
       </c>
       <c r="S14" s="1">
-        <v>-102.219000</v>
+        <v>-102.21899999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>59449.050234</v>
+        <v>59449.050234000002</v>
       </c>
       <c r="V14" s="1">
-        <v>16.513625</v>
+        <v>16.513625000000001</v>
       </c>
       <c r="W14" s="1">
-        <v>955.104000</v>
+        <v>955.10400000000004</v>
       </c>
       <c r="X14" s="1">
-        <v>-89.009400</v>
+        <v>-89.009399999999999</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
         <v>59459.535806</v>
       </c>
       <c r="AA14" s="1">
-        <v>16.516538</v>
+        <v>16.516538000000001</v>
       </c>
       <c r="AB14" s="1">
-        <v>962.458000</v>
+        <v>962.45799999999997</v>
       </c>
       <c r="AC14" s="1">
-        <v>-79.997300</v>
+        <v>-79.997299999999996</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>59470.067392</v>
+        <v>59470.067391999997</v>
       </c>
       <c r="AF14" s="1">
-        <v>16.519463</v>
+        <v>16.519462999999998</v>
       </c>
       <c r="AG14" s="1">
-        <v>967.468000</v>
+        <v>967.46799999999996</v>
       </c>
       <c r="AH14" s="1">
-        <v>-79.849400</v>
+        <v>-79.849400000000003</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>59480.923299</v>
+        <v>59480.923299000002</v>
       </c>
       <c r="AK14" s="1">
-        <v>16.522479</v>
+        <v>16.522479000000001</v>
       </c>
       <c r="AL14" s="1">
-        <v>975.524000</v>
+        <v>975.524</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.875700</v>
+        <v>-87.875699999999995</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>59491.679044</v>
+        <v>59491.679043999997</v>
       </c>
       <c r="AP14" s="1">
-        <v>16.525466</v>
+        <v>16.525466000000002</v>
       </c>
       <c r="AQ14" s="1">
-        <v>984.905000</v>
+        <v>984.90499999999997</v>
       </c>
       <c r="AR14" s="1">
-        <v>-102.974000</v>
+        <v>-102.974</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>59502.711061</v>
+        <v>59502.711061000002</v>
       </c>
       <c r="AU14" s="1">
-        <v>16.528531</v>
+        <v>16.528531000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>996.483000</v>
+        <v>996.48299999999995</v>
       </c>
       <c r="AW14" s="1">
-        <v>-124.610000</v>
+        <v>-124.61</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>59513.317512</v>
+        <v>59513.317512000001</v>
       </c>
       <c r="AZ14" s="1">
-        <v>16.531477</v>
+        <v>16.531476999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>1006.260000</v>
+        <v>1006.26</v>
       </c>
       <c r="BB14" s="1">
-        <v>-143.384000</v>
+        <v>-143.38399999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>59524.319308</v>
+        <v>59524.319307999998</v>
       </c>
       <c r="BE14" s="1">
         <v>16.534533</v>
       </c>
       <c r="BF14" s="1">
-        <v>1052.200000</v>
+        <v>1052.2</v>
       </c>
       <c r="BG14" s="1">
-        <v>-228.060000</v>
+        <v>-228.06</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>59536.317533</v>
+        <v>59536.317533000001</v>
       </c>
       <c r="BJ14" s="1">
-        <v>16.537866</v>
+        <v>16.537866000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1132.330000</v>
+        <v>1132.33</v>
       </c>
       <c r="BL14" s="1">
-        <v>-363.245000</v>
+        <v>-363.245</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>59547.170489</v>
+        <v>59547.170488999996</v>
       </c>
       <c r="BO14" s="1">
-        <v>16.540881</v>
+        <v>16.540880999999999</v>
       </c>
       <c r="BP14" s="1">
-        <v>1264.150000</v>
+        <v>1264.1500000000001</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-571.676000</v>
+        <v>-571.67600000000004</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>59557.696556</v>
+        <v>59557.696556000003</v>
       </c>
       <c r="BT14" s="1">
-        <v>16.543805</v>
+        <v>16.543804999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>1412.000000</v>
+        <v>1412</v>
       </c>
       <c r="BV14" s="1">
-        <v>-793.682000</v>
+        <v>-793.68200000000002</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>59568.554477</v>
+        <v>59568.554476999998</v>
       </c>
       <c r="BY14" s="1">
-        <v>16.546821</v>
+        <v>16.546821000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1573.220000</v>
+        <v>1573.22</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1025.330000</v>
+        <v>-1025.33</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>59580.746143</v>
+        <v>59580.746142999997</v>
       </c>
       <c r="CD14" s="1">
         <v>16.550207</v>
       </c>
       <c r="CE14" s="1">
-        <v>1980.270000</v>
+        <v>1980.27</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1564.630000</v>
+        <v>-1564.63</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>59408.150273</v>
+        <v>59408.150272999999</v>
       </c>
       <c r="B15" s="1">
         <v>16.502264</v>
       </c>
       <c r="C15" s="1">
-        <v>905.548000</v>
+        <v>905.548</v>
       </c>
       <c r="D15" s="1">
-        <v>-192.789000</v>
+        <v>-192.78899999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>59417.841638</v>
+        <v>59417.841637999998</v>
       </c>
       <c r="G15" s="1">
         <v>16.504956</v>
       </c>
       <c r="H15" s="1">
-        <v>921.558000</v>
+        <v>921.55799999999999</v>
       </c>
       <c r="I15" s="1">
-        <v>-163.742000</v>
+        <v>-163.74199999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>59428.358776</v>
+        <v>59428.358776000001</v>
       </c>
       <c r="L15" s="1">
-        <v>16.507877</v>
+        <v>16.507877000000001</v>
       </c>
       <c r="M15" s="1">
-        <v>942.226000</v>
+        <v>942.226</v>
       </c>
       <c r="N15" s="1">
-        <v>-117.145000</v>
+        <v>-117.145</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>59438.918602</v>
+        <v>59438.918601999998</v>
       </c>
       <c r="Q15" s="1">
         <v>16.510811</v>
       </c>
       <c r="R15" s="1">
-        <v>948.945000</v>
+        <v>948.94500000000005</v>
       </c>
       <c r="S15" s="1">
-        <v>-102.256000</v>
+        <v>-102.256</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>59449.395595</v>
+        <v>59449.395595000002</v>
       </c>
       <c r="V15" s="1">
         <v>16.513721</v>
       </c>
       <c r="W15" s="1">
-        <v>955.289000</v>
+        <v>955.28899999999999</v>
       </c>
       <c r="X15" s="1">
-        <v>-89.006300</v>
+        <v>-89.006299999999996</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>59459.882014</v>
+        <v>59459.882014000003</v>
       </c>
       <c r="AA15" s="1">
         <v>16.516634</v>
       </c>
       <c r="AB15" s="1">
-        <v>962.465000</v>
+        <v>962.46500000000003</v>
       </c>
       <c r="AC15" s="1">
-        <v>-80.044900</v>
+        <v>-80.044899999999998</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>59470.753328</v>
+        <v>59470.753327999999</v>
       </c>
       <c r="AF15" s="1">
-        <v>16.519654</v>
+        <v>16.519653999999999</v>
       </c>
       <c r="AG15" s="1">
-        <v>967.470000</v>
+        <v>967.47</v>
       </c>
       <c r="AH15" s="1">
-        <v>-79.894600</v>
+        <v>-79.894599999999997</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
         <v>59481.271986</v>
       </c>
       <c r="AK15" s="1">
-        <v>16.522576</v>
+        <v>16.522576000000001</v>
       </c>
       <c r="AL15" s="1">
-        <v>975.526000</v>
+        <v>975.52599999999995</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.854300</v>
+        <v>-87.854299999999995</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>59492.037651</v>
+        <v>59492.037650999999</v>
       </c>
       <c r="AP15" s="1">
-        <v>16.525566</v>
+        <v>16.525566000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>984.891000</v>
+        <v>984.89099999999996</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.950000</v>
+        <v>-102.95</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
         <v>59503.073159</v>
       </c>
       <c r="AU15" s="1">
-        <v>16.528631</v>
+        <v>16.528631000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>996.478000</v>
+        <v>996.47799999999995</v>
       </c>
       <c r="AW15" s="1">
-        <v>-124.598000</v>
+        <v>-124.598</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>59513.990087</v>
+        <v>59513.990086999998</v>
       </c>
       <c r="AZ15" s="1">
-        <v>16.531664</v>
+        <v>16.531663999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1006.250000</v>
+        <v>1006.25</v>
       </c>
       <c r="BB15" s="1">
-        <v>-143.409000</v>
+        <v>-143.40899999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>59524.990855</v>
+        <v>59524.990854999996</v>
       </c>
       <c r="BE15" s="1">
-        <v>16.534720</v>
+        <v>16.53472</v>
       </c>
       <c r="BF15" s="1">
-        <v>1052.190000</v>
+        <v>1052.19</v>
       </c>
       <c r="BG15" s="1">
-        <v>-228.060000</v>
+        <v>-228.06</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>59536.774808</v>
+        <v>59536.774808000002</v>
       </c>
       <c r="BJ15" s="1">
         <v>16.537993</v>
       </c>
       <c r="BK15" s="1">
-        <v>1132.310000</v>
+        <v>1132.31</v>
       </c>
       <c r="BL15" s="1">
-        <v>-363.269000</v>
+        <v>-363.26900000000001</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>59547.591323</v>
+        <v>59547.591323000001</v>
       </c>
       <c r="BO15" s="1">
-        <v>16.540998</v>
+        <v>16.540997999999998</v>
       </c>
       <c r="BP15" s="1">
-        <v>1264.100000</v>
+        <v>1264.0999999999999</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-571.702000</v>
+        <v>-571.702</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>59558.111212</v>
+        <v>59558.111212000003</v>
       </c>
       <c r="BT15" s="1">
-        <v>16.543920</v>
+        <v>16.54392</v>
       </c>
       <c r="BU15" s="1">
-        <v>1411.900000</v>
+        <v>1411.9</v>
       </c>
       <c r="BV15" s="1">
-        <v>-793.640000</v>
+        <v>-793.64</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
         <v>59568.983021</v>
       </c>
       <c r="BY15" s="1">
-        <v>16.546940</v>
+        <v>16.546939999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1573.240000</v>
+        <v>1573.24</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1025.440000</v>
+        <v>-1025.44</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>59581.303148</v>
+        <v>59581.303147999999</v>
       </c>
       <c r="CD15" s="1">
         <v>16.550362</v>
       </c>
       <c r="CE15" s="1">
-        <v>1980.980000</v>
+        <v>1980.98</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1565.700000</v>
+        <v>-1565.7</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>59408.431506</v>
+        <v>59408.431506000001</v>
       </c>
       <c r="B16" s="1">
-        <v>16.502342</v>
+        <v>16.502341999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>905.496000</v>
+        <v>905.49599999999998</v>
       </c>
       <c r="D16" s="1">
-        <v>-192.840000</v>
+        <v>-192.84</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>59418.188838</v>
+        <v>59418.188838000002</v>
       </c>
       <c r="G16" s="1">
-        <v>16.505052</v>
+        <v>16.505051999999999</v>
       </c>
       <c r="H16" s="1">
-        <v>921.774000</v>
+        <v>921.774</v>
       </c>
       <c r="I16" s="1">
-        <v>-162.932000</v>
+        <v>-162.93199999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>59428.703990</v>
+        <v>59428.703990000002</v>
       </c>
       <c r="L16" s="1">
         <v>16.507973</v>
       </c>
       <c r="M16" s="1">
-        <v>942.116000</v>
+        <v>942.11599999999999</v>
       </c>
       <c r="N16" s="1">
-        <v>-117.271000</v>
+        <v>-117.271</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>59439.268281</v>
+        <v>59439.268280999997</v>
       </c>
       <c r="Q16" s="1">
-        <v>16.510908</v>
+        <v>16.510908000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>948.914000</v>
+        <v>948.91399999999999</v>
       </c>
       <c r="S16" s="1">
-        <v>-102.251000</v>
+        <v>-102.251</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>59450.082568</v>
+        <v>59450.082567999998</v>
       </c>
       <c r="V16" s="1">
-        <v>16.513912</v>
+        <v>16.513912000000001</v>
       </c>
       <c r="W16" s="1">
-        <v>955.182000</v>
+        <v>955.18200000000002</v>
       </c>
       <c r="X16" s="1">
-        <v>-88.943000</v>
+        <v>-88.942999999999998</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>59460.581882</v>
+        <v>59460.581881999999</v>
       </c>
       <c r="AA16" s="1">
         <v>16.516828</v>
       </c>
       <c r="AB16" s="1">
-        <v>962.413000</v>
+        <v>962.41300000000001</v>
       </c>
       <c r="AC16" s="1">
-        <v>-80.026900</v>
+        <v>-80.026899999999998</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
         <v>59471.099038</v>
       </c>
       <c r="AF16" s="1">
-        <v>16.519750</v>
+        <v>16.519749999999998</v>
       </c>
       <c r="AG16" s="1">
-        <v>967.468000</v>
+        <v>967.46799999999996</v>
       </c>
       <c r="AH16" s="1">
-        <v>-79.912200</v>
+        <v>-79.912199999999999</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>59481.621699</v>
+        <v>59481.621699000003</v>
       </c>
       <c r="AK16" s="1">
-        <v>16.522673</v>
+        <v>16.522673000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>975.537000</v>
+        <v>975.53700000000003</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.860300</v>
+        <v>-87.860299999999995</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
         <v>59492.401714</v>
       </c>
       <c r="AP16" s="1">
-        <v>16.525667</v>
+        <v>16.525666999999999</v>
       </c>
       <c r="AQ16" s="1">
-        <v>984.884000</v>
+        <v>984.88400000000001</v>
       </c>
       <c r="AR16" s="1">
-        <v>-102.930000</v>
+        <v>-102.93</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>59503.747205</v>
       </c>
       <c r="AU16" s="1">
-        <v>16.528819</v>
+        <v>16.528818999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>996.457000</v>
+        <v>996.45699999999999</v>
       </c>
       <c r="AW16" s="1">
-        <v>-124.600000</v>
+        <v>-124.6</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>59514.393836</v>
+        <v>59514.393836000003</v>
       </c>
       <c r="AZ16" s="1">
-        <v>16.531776</v>
+        <v>16.531776000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1006.260000</v>
+        <v>1006.26</v>
       </c>
       <c r="BB16" s="1">
-        <v>-143.418000</v>
+        <v>-143.41800000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>59525.417912</v>
+        <v>59525.417911999997</v>
       </c>
       <c r="BE16" s="1">
-        <v>16.534838</v>
+        <v>16.534838000000001</v>
       </c>
       <c r="BF16" s="1">
-        <v>1052.220000</v>
+        <v>1052.22</v>
       </c>
       <c r="BG16" s="1">
-        <v>-228.039000</v>
+        <v>-228.03899999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>59537.167640</v>
+        <v>59537.16764</v>
       </c>
       <c r="BJ16" s="1">
-        <v>16.538102</v>
+        <v>16.538101999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1132.310000</v>
+        <v>1132.31</v>
       </c>
       <c r="BL16" s="1">
-        <v>-363.248000</v>
+        <v>-363.24799999999999</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>59547.988361</v>
+        <v>59547.988361000003</v>
       </c>
       <c r="BO16" s="1">
-        <v>16.541108</v>
+        <v>16.541108000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1264.150000</v>
+        <v>1264.1500000000001</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-571.704000</v>
+        <v>-571.70399999999995</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>59558.538763</v>
+        <v>59558.538762999997</v>
       </c>
       <c r="BT16" s="1">
-        <v>16.544039</v>
+        <v>16.544039000000001</v>
       </c>
       <c r="BU16" s="1">
-        <v>1411.850000</v>
+        <v>1411.85</v>
       </c>
       <c r="BV16" s="1">
-        <v>-793.637000</v>
+        <v>-793.63699999999994</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>59569.408092</v>
+        <v>59569.408091999998</v>
       </c>
       <c r="BY16" s="1">
         <v>16.547058</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1573.290000</v>
+        <v>1573.29</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1025.400000</v>
+        <v>-1025.4000000000001</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>59581.830892</v>
+        <v>59581.830891999998</v>
       </c>
       <c r="CD16" s="1">
-        <v>16.550509</v>
+        <v>16.550509000000002</v>
       </c>
       <c r="CE16" s="1">
-        <v>1979.830000</v>
+        <v>1979.83</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1564.460000</v>
+        <v>-1564.46</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>59408.774240</v>
+        <v>59408.774239999999</v>
       </c>
       <c r="B17" s="1">
         <v>16.502437</v>
       </c>
       <c r="C17" s="1">
-        <v>905.661000</v>
+        <v>905.66099999999994</v>
       </c>
       <c r="D17" s="1">
-        <v>-192.920000</v>
+        <v>-192.92</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>59418.532036</v>
+        <v>59418.532035999997</v>
       </c>
       <c r="G17" s="1">
-        <v>16.505148</v>
+        <v>16.505147999999998</v>
       </c>
       <c r="H17" s="1">
-        <v>921.824000</v>
+        <v>921.82399999999996</v>
       </c>
       <c r="I17" s="1">
-        <v>-162.676000</v>
+        <v>-162.67599999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>59429.395910</v>
+        <v>59429.395909999999</v>
       </c>
       <c r="L17" s="1">
-        <v>16.508166</v>
+        <v>16.508165999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>942.134000</v>
+        <v>942.13400000000001</v>
       </c>
       <c r="N17" s="1">
-        <v>-117.554000</v>
+        <v>-117.554</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>59439.961191</v>
+        <v>59439.961191000002</v>
       </c>
       <c r="Q17" s="1">
-        <v>16.511100</v>
+        <v>16.511099999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>948.898000</v>
+        <v>948.89800000000002</v>
       </c>
       <c r="S17" s="1">
-        <v>-102.226000</v>
+        <v>-102.226</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>59450.426322</v>
+        <v>59450.426321999999</v>
       </c>
       <c r="V17" s="1">
-        <v>16.514007</v>
+        <v>16.514006999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>955.312000</v>
+        <v>955.31200000000001</v>
       </c>
       <c r="X17" s="1">
-        <v>-88.998600</v>
+        <v>-88.998599999999996</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>59460.929564</v>
+        <v>59460.929563999998</v>
       </c>
       <c r="AA17" s="1">
-        <v>16.516925</v>
+        <v>16.516925000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>962.393000</v>
+        <v>962.39300000000003</v>
       </c>
       <c r="AC17" s="1">
-        <v>-79.997900</v>
+        <v>-79.997900000000001</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>59471.440783</v>
+        <v>59471.440782999998</v>
       </c>
       <c r="AF17" s="1">
         <v>16.519845</v>
       </c>
       <c r="AG17" s="1">
-        <v>967.395000</v>
+        <v>967.39499999999998</v>
       </c>
       <c r="AH17" s="1">
-        <v>-79.859900</v>
+        <v>-79.859899999999996</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>59482.280517</v>
+        <v>59482.280516999999</v>
       </c>
       <c r="AK17" s="1">
-        <v>16.522856</v>
+        <v>16.522856000000001</v>
       </c>
       <c r="AL17" s="1">
-        <v>975.552000</v>
+        <v>975.55200000000002</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.842800</v>
+        <v>-87.842799999999997</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>59493.113969</v>
+        <v>59493.113968999998</v>
       </c>
       <c r="AP17" s="1">
         <v>16.525865</v>
       </c>
       <c r="AQ17" s="1">
-        <v>984.888000</v>
+        <v>984.88800000000003</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.959000</v>
+        <v>-102.959</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>59504.203058</v>
+        <v>59504.203057999999</v>
       </c>
       <c r="AU17" s="1">
         <v>16.528945</v>
       </c>
       <c r="AV17" s="1">
-        <v>996.478000</v>
+        <v>996.47799999999995</v>
       </c>
       <c r="AW17" s="1">
-        <v>-124.605000</v>
+        <v>-124.605</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>59514.772278</v>
+        <v>59514.772277999997</v>
       </c>
       <c r="AZ17" s="1">
-        <v>16.531881</v>
+        <v>16.531880999999998</v>
       </c>
       <c r="BA17" s="1">
-        <v>1006.270000</v>
+        <v>1006.27</v>
       </c>
       <c r="BB17" s="1">
-        <v>-143.404000</v>
+        <v>-143.404</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>59525.800326</v>
+        <v>59525.800325999997</v>
       </c>
       <c r="BE17" s="1">
         <v>16.534945</v>
       </c>
       <c r="BF17" s="1">
-        <v>1052.200000</v>
+        <v>1052.2</v>
       </c>
       <c r="BG17" s="1">
-        <v>-228.091000</v>
+        <v>-228.09100000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>59537.538183</v>
+        <v>59537.538182999997</v>
       </c>
       <c r="BJ17" s="1">
-        <v>16.538205</v>
+        <v>16.538205000000001</v>
       </c>
       <c r="BK17" s="1">
-        <v>1132.300000</v>
+        <v>1132.3</v>
       </c>
       <c r="BL17" s="1">
-        <v>-363.247000</v>
+        <v>-363.24700000000001</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>59548.410984</v>
+        <v>59548.410984000002</v>
       </c>
       <c r="BO17" s="1">
-        <v>16.541225</v>
+        <v>16.541225000000001</v>
       </c>
       <c r="BP17" s="1">
-        <v>1264.140000</v>
+        <v>1264.1400000000001</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-571.676000</v>
+        <v>-571.67600000000004</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>59559.015418</v>
+        <v>59559.015418000003</v>
       </c>
       <c r="BT17" s="1">
-        <v>16.544171</v>
+        <v>16.544170999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>1411.740000</v>
+        <v>1411.74</v>
       </c>
       <c r="BV17" s="1">
-        <v>-793.575000</v>
+        <v>-793.57500000000005</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>59569.847052</v>
+        <v>59569.847051999997</v>
       </c>
       <c r="BY17" s="1">
-        <v>16.547180</v>
+        <v>16.547180000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1573.360000</v>
+        <v>1573.36</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1025.380000</v>
+        <v>-1025.3800000000001</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>59582.348251</v>
+        <v>59582.348251000003</v>
       </c>
       <c r="CD17" s="1">
-        <v>16.550652</v>
+        <v>16.550651999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>1979.190000</v>
+        <v>1979.19</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1565.820000</v>
+        <v>-1565.82</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>59409.113038</v>
+        <v>59409.113038000003</v>
       </c>
       <c r="B18" s="1">
-        <v>16.502531</v>
+        <v>16.502531000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>905.521000</v>
+        <v>905.52099999999996</v>
       </c>
       <c r="D18" s="1">
-        <v>-192.831000</v>
+        <v>-192.83099999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>59419.220484</v>
+        <v>59419.220483999998</v>
       </c>
       <c r="G18" s="1">
-        <v>16.505339</v>
+        <v>16.505338999999999</v>
       </c>
       <c r="H18" s="1">
-        <v>921.821000</v>
+        <v>921.82100000000003</v>
       </c>
       <c r="I18" s="1">
-        <v>-163.103000</v>
+        <v>-163.10300000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>59429.742149</v>
+        <v>59429.742148999998</v>
       </c>
       <c r="L18" s="1">
-        <v>16.508262</v>
+        <v>16.508261999999998</v>
       </c>
       <c r="M18" s="1">
-        <v>942.223000</v>
+        <v>942.22299999999996</v>
       </c>
       <c r="N18" s="1">
-        <v>-117.409000</v>
+        <v>-117.40900000000001</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>59440.313848</v>
+        <v>59440.313847999998</v>
       </c>
       <c r="Q18" s="1">
         <v>16.511198</v>
       </c>
       <c r="R18" s="1">
-        <v>948.898000</v>
+        <v>948.89800000000002</v>
       </c>
       <c r="S18" s="1">
-        <v>-102.262000</v>
+        <v>-102.262</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>59450.769513</v>
+        <v>59450.769512999999</v>
       </c>
       <c r="V18" s="1">
-        <v>16.514103</v>
+        <v>16.514102999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>955.166000</v>
+        <v>955.16600000000005</v>
       </c>
       <c r="X18" s="1">
-        <v>-88.993100</v>
+        <v>-88.993099999999998</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>59461.607626</v>
+        <v>59461.607625999997</v>
       </c>
       <c r="AA18" s="1">
-        <v>16.517113</v>
+        <v>16.517112999999998</v>
       </c>
       <c r="AB18" s="1">
-        <v>962.416000</v>
+        <v>962.41600000000005</v>
       </c>
       <c r="AC18" s="1">
-        <v>-80.007400</v>
+        <v>-80.007400000000004</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>59472.092066</v>
+        <v>59472.092065999997</v>
       </c>
       <c r="AF18" s="1">
-        <v>16.520026</v>
+        <v>16.520026000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>967.476000</v>
+        <v>967.476</v>
       </c>
       <c r="AH18" s="1">
-        <v>-79.776600</v>
+        <v>-79.776600000000002</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>59482.665743</v>
+        <v>59482.665742999998</v>
       </c>
       <c r="AK18" s="1">
-        <v>16.522963</v>
+        <v>16.522963000000001</v>
       </c>
       <c r="AL18" s="1">
-        <v>975.537000</v>
+        <v>975.53700000000003</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.886700</v>
+        <v>-87.886700000000005</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
         <v>59493.503826</v>
@@ -4713,300 +5129,300 @@
         <v>16.525973</v>
       </c>
       <c r="AQ18" s="1">
-        <v>984.870000</v>
+        <v>984.87</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.961000</v>
+        <v>-102.961</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>59504.567618</v>
+        <v>59504.567618000001</v>
       </c>
       <c r="AU18" s="1">
-        <v>16.529047</v>
+        <v>16.529046999999998</v>
       </c>
       <c r="AV18" s="1">
-        <v>996.457000</v>
+        <v>996.45699999999999</v>
       </c>
       <c r="AW18" s="1">
-        <v>-124.608000</v>
+        <v>-124.608</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>59515.134357</v>
+        <v>59515.134357000003</v>
       </c>
       <c r="AZ18" s="1">
-        <v>16.531982</v>
+        <v>16.531981999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1006.260000</v>
+        <v>1006.26</v>
       </c>
       <c r="BB18" s="1">
-        <v>-143.392000</v>
+        <v>-143.392</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>59526.162407</v>
+        <v>59526.162407000003</v>
       </c>
       <c r="BE18" s="1">
         <v>16.535045</v>
       </c>
       <c r="BF18" s="1">
-        <v>1052.210000</v>
+        <v>1052.21</v>
       </c>
       <c r="BG18" s="1">
-        <v>-228.069000</v>
+        <v>-228.06899999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>59537.965703</v>
+        <v>59537.965703000002</v>
       </c>
       <c r="BJ18" s="1">
-        <v>16.538324</v>
+        <v>16.538323999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1132.310000</v>
+        <v>1132.31</v>
       </c>
       <c r="BL18" s="1">
-        <v>-363.240000</v>
+        <v>-363.24</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>59548.806264</v>
+        <v>59548.806263999999</v>
       </c>
       <c r="BO18" s="1">
         <v>16.541335</v>
       </c>
       <c r="BP18" s="1">
-        <v>1264.110000</v>
+        <v>1264.1099999999999</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-571.651000</v>
+        <v>-571.65099999999995</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>59559.362617</v>
+        <v>59559.362616999999</v>
       </c>
       <c r="BT18" s="1">
-        <v>16.544267</v>
+        <v>16.544267000000001</v>
       </c>
       <c r="BU18" s="1">
-        <v>1411.760000</v>
+        <v>1411.76</v>
       </c>
       <c r="BV18" s="1">
-        <v>-793.525000</v>
+        <v>-793.52499999999998</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>59570.269676</v>
+        <v>59570.269676000004</v>
       </c>
       <c r="BY18" s="1">
         <v>16.547297</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1573.170000</v>
+        <v>1573.17</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1025.310000</v>
+        <v>-1025.31</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>59582.866539</v>
+        <v>59582.866539000002</v>
       </c>
       <c r="CD18" s="1">
-        <v>16.550796</v>
+        <v>16.550795999999998</v>
       </c>
       <c r="CE18" s="1">
-        <v>1980.350000</v>
+        <v>1980.35</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1566.320000</v>
+        <v>-1566.32</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>59409.797488</v>
+        <v>59409.797487999997</v>
       </c>
       <c r="B19" s="1">
-        <v>16.502722</v>
+        <v>16.502721999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>905.513000</v>
+        <v>905.51300000000003</v>
       </c>
       <c r="D19" s="1">
-        <v>-192.808000</v>
+        <v>-192.80799999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>59419.565235</v>
+        <v>59419.565235000002</v>
       </c>
       <c r="G19" s="1">
-        <v>16.505435</v>
+        <v>16.505434999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>921.727000</v>
+        <v>921.72699999999998</v>
       </c>
       <c r="I19" s="1">
-        <v>-163.569000</v>
+        <v>-163.56899999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>59430.093317</v>
+        <v>59430.093316999999</v>
       </c>
       <c r="L19" s="1">
-        <v>16.508359</v>
+        <v>16.508358999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>942.288000</v>
+        <v>942.28800000000001</v>
       </c>
       <c r="N19" s="1">
-        <v>-117.247000</v>
+        <v>-117.247</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>59440.659064</v>
+        <v>59440.659063999999</v>
       </c>
       <c r="Q19" s="1">
-        <v>16.511294</v>
+        <v>16.511293999999999</v>
       </c>
       <c r="R19" s="1">
-        <v>948.931000</v>
+        <v>948.93100000000004</v>
       </c>
       <c r="S19" s="1">
-        <v>-102.210000</v>
+        <v>-102.21</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>59451.429193</v>
+        <v>59451.429193000004</v>
       </c>
       <c r="V19" s="1">
-        <v>16.514286</v>
+        <v>16.514285999999998</v>
       </c>
       <c r="W19" s="1">
-        <v>955.236000</v>
+        <v>955.23599999999999</v>
       </c>
       <c r="X19" s="1">
-        <v>-88.946700</v>
+        <v>-88.946700000000007</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>59461.975626</v>
+        <v>59461.975625999999</v>
       </c>
       <c r="AA19" s="1">
         <v>16.517215</v>
       </c>
       <c r="AB19" s="1">
-        <v>962.393000</v>
+        <v>962.39300000000003</v>
       </c>
       <c r="AC19" s="1">
-        <v>-80.034700</v>
+        <v>-80.034700000000001</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>59472.471504</v>
+        <v>59472.471504000001</v>
       </c>
       <c r="AF19" s="1">
-        <v>16.520131</v>
+        <v>16.520130999999999</v>
       </c>
       <c r="AG19" s="1">
-        <v>967.438000</v>
+        <v>967.43799999999999</v>
       </c>
       <c r="AH19" s="1">
-        <v>-79.824300</v>
+        <v>-79.824299999999994</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>59483.015422</v>
+        <v>59483.015421999997</v>
       </c>
       <c r="AK19" s="1">
-        <v>16.523060</v>
+        <v>16.523060000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>975.530000</v>
+        <v>975.53</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.840900</v>
+        <v>-87.840900000000005</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>59493.882769</v>
+        <v>59493.882769000003</v>
       </c>
       <c r="AP19" s="1">
-        <v>16.526079</v>
+        <v>16.526078999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>984.872000</v>
+        <v>984.87199999999996</v>
       </c>
       <c r="AR19" s="1">
-        <v>-102.958000</v>
+        <v>-102.958</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>59504.929173</v>
+        <v>59504.929172999997</v>
       </c>
       <c r="AU19" s="1">
-        <v>16.529147</v>
+        <v>16.529146999999998</v>
       </c>
       <c r="AV19" s="1">
-        <v>996.474000</v>
+        <v>996.47400000000005</v>
       </c>
       <c r="AW19" s="1">
-        <v>-124.607000</v>
+        <v>-124.607</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>59515.554467</v>
+        <v>59515.554467000002</v>
       </c>
       <c r="AZ19" s="1">
-        <v>16.532098</v>
+        <v>16.532098000000001</v>
       </c>
       <c r="BA19" s="1">
-        <v>1006.260000</v>
+        <v>1006.26</v>
       </c>
       <c r="BB19" s="1">
-        <v>-143.409000</v>
+        <v>-143.40899999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
         <v>59526.882629</v>
@@ -5015,120 +5431,120 @@
         <v>16.535245</v>
       </c>
       <c r="BF19" s="1">
-        <v>1052.210000</v>
+        <v>1052.21</v>
       </c>
       <c r="BG19" s="1">
-        <v>-228.065000</v>
+        <v>-228.065</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>59538.290117</v>
+        <v>59538.290116999997</v>
       </c>
       <c r="BJ19" s="1">
         <v>16.538414</v>
       </c>
       <c r="BK19" s="1">
-        <v>1132.310000</v>
+        <v>1132.31</v>
       </c>
       <c r="BL19" s="1">
-        <v>-363.265000</v>
+        <v>-363.26499999999999</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>59549.225383</v>
+        <v>59549.225382999997</v>
       </c>
       <c r="BO19" s="1">
-        <v>16.541451</v>
+        <v>16.541450999999999</v>
       </c>
       <c r="BP19" s="1">
-        <v>1264.170000</v>
+        <v>1264.17</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-571.685000</v>
+        <v>-571.68499999999995</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>59559.793145</v>
+        <v>59559.793145000003</v>
       </c>
       <c r="BT19" s="1">
         <v>16.544387</v>
       </c>
       <c r="BU19" s="1">
-        <v>1411.630000</v>
+        <v>1411.63</v>
       </c>
       <c r="BV19" s="1">
-        <v>-793.588000</v>
+        <v>-793.58799999999997</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>59570.694218</v>
+        <v>59570.694217999997</v>
       </c>
       <c r="BY19" s="1">
-        <v>16.547415</v>
+        <v>16.547415000000001</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1573.200000</v>
+        <v>1573.2</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1025.250000</v>
+        <v>-1025.25</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>59583.382875</v>
+        <v>59583.382875000003</v>
       </c>
       <c r="CD19" s="1">
-        <v>16.550940</v>
+        <v>16.550940000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>1979.880000</v>
+        <v>1979.88</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1566.460000</v>
+        <v>-1566.46</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>59410.139727</v>
+        <v>59410.139727000002</v>
       </c>
       <c r="B20" s="1">
         <v>16.502817</v>
       </c>
       <c r="C20" s="1">
-        <v>905.605000</v>
+        <v>905.60500000000002</v>
       </c>
       <c r="D20" s="1">
-        <v>-192.870000</v>
+        <v>-192.87</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>59419.909958</v>
+        <v>59419.909957999997</v>
       </c>
       <c r="G20" s="1">
-        <v>16.505531</v>
+        <v>16.505531000000001</v>
       </c>
       <c r="H20" s="1">
-        <v>922.072000</v>
+        <v>922.072</v>
       </c>
       <c r="I20" s="1">
-        <v>-163.340000</v>
+        <v>-163.34</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
         <v>59430.753459</v>
@@ -5137,163 +5553,163 @@
         <v>16.508543</v>
       </c>
       <c r="M20" s="1">
-        <v>942.643000</v>
+        <v>942.64300000000003</v>
       </c>
       <c r="N20" s="1">
-        <v>-117.129000</v>
+        <v>-117.129</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>59441.318741</v>
+        <v>59441.318741000003</v>
       </c>
       <c r="Q20" s="1">
-        <v>16.511477</v>
+        <v>16.511476999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>948.966000</v>
+        <v>948.96600000000001</v>
       </c>
       <c r="S20" s="1">
-        <v>-102.258000</v>
+        <v>-102.258</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>59451.803672</v>
+        <v>59451.803672000002</v>
       </c>
       <c r="V20" s="1">
-        <v>16.514390</v>
+        <v>16.514389999999999</v>
       </c>
       <c r="W20" s="1">
-        <v>955.185000</v>
+        <v>955.18499999999995</v>
       </c>
       <c r="X20" s="1">
-        <v>-88.970100</v>
+        <v>-88.970100000000002</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>59462.321373</v>
+        <v>59462.321372999999</v>
       </c>
       <c r="AA20" s="1">
-        <v>16.517311</v>
+        <v>16.517310999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>962.384000</v>
+        <v>962.38400000000001</v>
       </c>
       <c r="AC20" s="1">
-        <v>-80.043000</v>
+        <v>-80.043000000000006</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>59472.814715</v>
       </c>
       <c r="AF20" s="1">
-        <v>16.520226</v>
+        <v>16.520226000000001</v>
       </c>
       <c r="AG20" s="1">
-        <v>967.455000</v>
+        <v>967.45500000000004</v>
       </c>
       <c r="AH20" s="1">
-        <v>-79.838700</v>
+        <v>-79.838700000000003</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>59483.363119</v>
+        <v>59483.363119000001</v>
       </c>
       <c r="AK20" s="1">
         <v>16.523156</v>
       </c>
       <c r="AL20" s="1">
-        <v>975.521000</v>
+        <v>975.52099999999996</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.864000</v>
+        <v>-87.864000000000004</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>59494.299439</v>
+        <v>59494.299439000002</v>
       </c>
       <c r="AP20" s="1">
         <v>16.526194</v>
       </c>
       <c r="AQ20" s="1">
-        <v>984.879000</v>
+        <v>984.87900000000002</v>
       </c>
       <c r="AR20" s="1">
-        <v>-102.978000</v>
+        <v>-102.97799999999999</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>59505.351762</v>
+        <v>59505.351761999998</v>
       </c>
       <c r="AU20" s="1">
-        <v>16.529264</v>
+        <v>16.529264000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>996.484000</v>
+        <v>996.48400000000004</v>
       </c>
       <c r="AW20" s="1">
-        <v>-124.605000</v>
+        <v>-124.605</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
         <v>59515.851078</v>
       </c>
       <c r="AZ20" s="1">
-        <v>16.532181</v>
+        <v>16.532181000000001</v>
       </c>
       <c r="BA20" s="1">
-        <v>1006.260000</v>
+        <v>1006.26</v>
       </c>
       <c r="BB20" s="1">
-        <v>-143.397000</v>
+        <v>-143.39699999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>59527.244180</v>
+        <v>59527.244180000002</v>
       </c>
       <c r="BE20" s="1">
-        <v>16.535346</v>
+        <v>16.535346000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1052.190000</v>
+        <v>1052.19</v>
       </c>
       <c r="BG20" s="1">
-        <v>-228.073000</v>
+        <v>-228.07300000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>59538.676469</v>
+        <v>59538.676468999998</v>
       </c>
       <c r="BJ20" s="1">
-        <v>16.538521</v>
+        <v>16.538520999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1132.320000</v>
+        <v>1132.32</v>
       </c>
       <c r="BL20" s="1">
-        <v>-363.259000</v>
+        <v>-363.25900000000001</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
         <v>59549.625192</v>
@@ -5302,1011 +5718,1011 @@
         <v>16.541563</v>
       </c>
       <c r="BP20" s="1">
-        <v>1264.160000</v>
+        <v>1264.1600000000001</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-571.664000</v>
+        <v>-571.66399999999999</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>59560.217752</v>
+        <v>59560.217751999997</v>
       </c>
       <c r="BT20" s="1">
-        <v>16.544505</v>
+        <v>16.544505000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>1411.590000</v>
+        <v>1411.59</v>
       </c>
       <c r="BV20" s="1">
-        <v>-793.566000</v>
+        <v>-793.56600000000003</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>59571.141114</v>
+        <v>59571.141113999998</v>
       </c>
       <c r="BY20" s="1">
         <v>16.547539</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1573.440000</v>
+        <v>1573.44</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1025.360000</v>
+        <v>-1025.3599999999999</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>59583.936945</v>
+        <v>59583.936945000001</v>
       </c>
       <c r="CD20" s="1">
-        <v>16.551094</v>
+        <v>16.551093999999999</v>
       </c>
       <c r="CE20" s="1">
-        <v>1978.900000</v>
+        <v>1978.9</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1565.650000</v>
+        <v>-1565.65</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>59410.490894</v>
+        <v>59410.490894000002</v>
       </c>
       <c r="B21" s="1">
-        <v>16.502914</v>
+        <v>16.502914000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>905.584000</v>
+        <v>905.58399999999995</v>
       </c>
       <c r="D21" s="1">
-        <v>-192.727000</v>
+        <v>-192.727</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>59420.569269</v>
       </c>
       <c r="G21" s="1">
-        <v>16.505714</v>
+        <v>16.505714000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>921.410000</v>
+        <v>921.41</v>
       </c>
       <c r="I21" s="1">
-        <v>-163.422000</v>
+        <v>-163.422</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>59431.128436</v>
+        <v>59431.128435999999</v>
       </c>
       <c r="L21" s="1">
         <v>16.508647</v>
       </c>
       <c r="M21" s="1">
-        <v>942.622000</v>
+        <v>942.62199999999996</v>
       </c>
       <c r="N21" s="1">
-        <v>-117.074000</v>
+        <v>-117.074</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>59441.706645</v>
+        <v>59441.706644999998</v>
       </c>
       <c r="Q21" s="1">
         <v>16.511585</v>
       </c>
       <c r="R21" s="1">
-        <v>948.931000</v>
+        <v>948.93100000000004</v>
       </c>
       <c r="S21" s="1">
-        <v>-102.250000</v>
+        <v>-102.25</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>59452.152390</v>
+        <v>59452.152390000003</v>
       </c>
       <c r="V21" s="1">
-        <v>16.514487</v>
+        <v>16.514486999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>955.329000</v>
+        <v>955.32899999999995</v>
       </c>
       <c r="X21" s="1">
-        <v>-89.010600</v>
+        <v>-89.010599999999997</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>59462.673497</v>
+        <v>59462.673497000003</v>
       </c>
       <c r="AA21" s="1">
-        <v>16.517409</v>
+        <v>16.517409000000001</v>
       </c>
       <c r="AB21" s="1">
-        <v>962.396000</v>
+        <v>962.39599999999996</v>
       </c>
       <c r="AC21" s="1">
-        <v>-80.027100</v>
+        <v>-80.027100000000004</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>59473.160941</v>
+        <v>59473.160941000002</v>
       </c>
       <c r="AF21" s="1">
         <v>16.520322</v>
       </c>
       <c r="AG21" s="1">
-        <v>967.414000</v>
+        <v>967.41399999999999</v>
       </c>
       <c r="AH21" s="1">
-        <v>-79.857300</v>
+        <v>-79.857299999999995</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>59483.787234</v>
+        <v>59483.787234000003</v>
       </c>
       <c r="AK21" s="1">
-        <v>16.523274</v>
+        <v>16.523274000000001</v>
       </c>
       <c r="AL21" s="1">
-        <v>975.521000</v>
+        <v>975.52099999999996</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.846800</v>
+        <v>-87.846800000000002</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>59494.601012</v>
+        <v>59494.601011999999</v>
       </c>
       <c r="AP21" s="1">
-        <v>16.526278</v>
+        <v>16.526278000000001</v>
       </c>
       <c r="AQ21" s="1">
-        <v>984.881000</v>
+        <v>984.88099999999997</v>
       </c>
       <c r="AR21" s="1">
-        <v>-102.947000</v>
+        <v>-102.947</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
         <v>59505.658786</v>
       </c>
       <c r="AU21" s="1">
-        <v>16.529350</v>
+        <v>16.529350000000001</v>
       </c>
       <c r="AV21" s="1">
-        <v>996.488000</v>
+        <v>996.48800000000006</v>
       </c>
       <c r="AW21" s="1">
-        <v>-124.590000</v>
+        <v>-124.59</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>59516.212658</v>
+        <v>59516.212657999997</v>
       </c>
       <c r="AZ21" s="1">
-        <v>16.532281</v>
+        <v>16.532281000000001</v>
       </c>
       <c r="BA21" s="1">
-        <v>1006.260000</v>
+        <v>1006.26</v>
       </c>
       <c r="BB21" s="1">
-        <v>-143.378000</v>
+        <v>-143.37799999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>59527.602787</v>
+        <v>59527.602787000003</v>
       </c>
       <c r="BE21" s="1">
-        <v>16.535445</v>
+        <v>16.535444999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1052.200000</v>
+        <v>1052.2</v>
       </c>
       <c r="BG21" s="1">
-        <v>-228.069000</v>
+        <v>-228.06899999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>59539.065333</v>
+        <v>59539.065332999999</v>
       </c>
       <c r="BJ21" s="1">
         <v>16.538629</v>
       </c>
       <c r="BK21" s="1">
-        <v>1132.330000</v>
+        <v>1132.33</v>
       </c>
       <c r="BL21" s="1">
-        <v>-363.253000</v>
+        <v>-363.25299999999999</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>59550.048741</v>
+        <v>59550.048740999999</v>
       </c>
       <c r="BO21" s="1">
-        <v>16.541680</v>
+        <v>16.541679999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1264.120000</v>
+        <v>1264.1199999999999</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-571.641000</v>
+        <v>-571.64099999999996</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>59560.636840</v>
+        <v>59560.636839999999</v>
       </c>
       <c r="BT21" s="1">
-        <v>16.544621</v>
+        <v>16.544620999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>1411.500000</v>
+        <v>1411.5</v>
       </c>
       <c r="BV21" s="1">
-        <v>-793.599000</v>
+        <v>-793.59900000000005</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>59571.571642</v>
+        <v>59571.571642000003</v>
       </c>
       <c r="BY21" s="1">
-        <v>16.547659</v>
+        <v>16.547658999999999</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1573.200000</v>
+        <v>1573.2</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1025.310000</v>
+        <v>-1025.31</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>59584.467129</v>
+        <v>59584.467128999997</v>
       </c>
       <c r="CD21" s="1">
-        <v>16.551241</v>
+        <v>16.551241000000001</v>
       </c>
       <c r="CE21" s="1">
-        <v>1980.680000</v>
+        <v>1980.68</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1566.360000</v>
+        <v>-1566.36</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>59410.950686</v>
+        <v>59410.950685999996</v>
       </c>
       <c r="B22" s="1">
-        <v>16.503042</v>
+        <v>16.503042000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>905.590000</v>
+        <v>905.59</v>
       </c>
       <c r="D22" s="1">
-        <v>-192.941000</v>
+        <v>-192.941</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>59420.945073</v>
+        <v>59420.945073000003</v>
       </c>
       <c r="G22" s="1">
-        <v>16.505818</v>
+        <v>16.505818000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>921.601000</v>
+        <v>921.601</v>
       </c>
       <c r="I22" s="1">
-        <v>-163.035000</v>
+        <v>-163.035</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
         <v>59431.474146</v>
       </c>
       <c r="L22" s="1">
-        <v>16.508743</v>
+        <v>16.508742999999999</v>
       </c>
       <c r="M22" s="1">
-        <v>942.568000</v>
+        <v>942.56799999999998</v>
       </c>
       <c r="N22" s="1">
-        <v>-117.159000</v>
+        <v>-117.15900000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>59442.054808</v>
+        <v>59442.054808000001</v>
       </c>
       <c r="Q22" s="1">
         <v>16.511682</v>
       </c>
       <c r="R22" s="1">
-        <v>948.893000</v>
+        <v>948.89300000000003</v>
       </c>
       <c r="S22" s="1">
-        <v>-102.257000</v>
+        <v>-102.25700000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>59452.498104</v>
+        <v>59452.498103999998</v>
       </c>
       <c r="V22" s="1">
-        <v>16.514583</v>
+        <v>16.514582999999998</v>
       </c>
       <c r="W22" s="1">
-        <v>955.252000</v>
+        <v>955.25199999999995</v>
       </c>
       <c r="X22" s="1">
-        <v>-89.055700</v>
+        <v>-89.055700000000002</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>59463.095098</v>
+        <v>59463.095097999998</v>
       </c>
       <c r="AA22" s="1">
         <v>16.517526</v>
       </c>
       <c r="AB22" s="1">
-        <v>962.403000</v>
+        <v>962.40300000000002</v>
       </c>
       <c r="AC22" s="1">
-        <v>-80.070700</v>
+        <v>-80.070700000000002</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>59473.589979</v>
+        <v>59473.589978999997</v>
       </c>
       <c r="AF22" s="1">
-        <v>16.520442</v>
+        <v>16.520441999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>967.460000</v>
+        <v>967.46</v>
       </c>
       <c r="AH22" s="1">
-        <v>-79.890200</v>
+        <v>-79.890199999999993</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>59484.064496</v>
+        <v>59484.064495999999</v>
       </c>
       <c r="AK22" s="1">
-        <v>16.523351</v>
+        <v>16.523351000000002</v>
       </c>
       <c r="AL22" s="1">
-        <v>975.534000</v>
+        <v>975.53399999999999</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.857500</v>
+        <v>-87.857500000000002</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>59494.965567</v>
+        <v>59494.965566999999</v>
       </c>
       <c r="AP22" s="1">
-        <v>16.526379</v>
+        <v>16.526378999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>984.888000</v>
+        <v>984.88800000000003</v>
       </c>
       <c r="AR22" s="1">
-        <v>-102.942000</v>
+        <v>-102.94199999999999</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>59506.023376</v>
+        <v>59506.023375999997</v>
       </c>
       <c r="AU22" s="1">
-        <v>16.529451</v>
+        <v>16.529451000000002</v>
       </c>
       <c r="AV22" s="1">
-        <v>996.461000</v>
+        <v>996.46100000000001</v>
       </c>
       <c r="AW22" s="1">
-        <v>-124.598000</v>
+        <v>-124.598</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>59516.569815</v>
+        <v>59516.569815000003</v>
       </c>
       <c r="AZ22" s="1">
-        <v>16.532381</v>
+        <v>16.532381000000001</v>
       </c>
       <c r="BA22" s="1">
-        <v>1006.260000</v>
+        <v>1006.26</v>
       </c>
       <c r="BB22" s="1">
-        <v>-143.389000</v>
+        <v>-143.38900000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>59528.334419</v>
+        <v>59528.334418999999</v>
       </c>
       <c r="BE22" s="1">
-        <v>16.535648</v>
+        <v>16.535647999999998</v>
       </c>
       <c r="BF22" s="1">
-        <v>1052.210000</v>
+        <v>1052.21</v>
       </c>
       <c r="BG22" s="1">
-        <v>-228.085000</v>
+        <v>-228.08500000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>59539.814787</v>
+        <v>59539.814787000003</v>
       </c>
       <c r="BJ22" s="1">
-        <v>16.538837</v>
+        <v>16.538837000000001</v>
       </c>
       <c r="BK22" s="1">
-        <v>1132.320000</v>
+        <v>1132.32</v>
       </c>
       <c r="BL22" s="1">
-        <v>-363.268000</v>
+        <v>-363.26799999999997</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>59550.443099</v>
+        <v>59550.443098999996</v>
       </c>
       <c r="BO22" s="1">
-        <v>16.541790</v>
+        <v>16.541789999999999</v>
       </c>
       <c r="BP22" s="1">
-        <v>1264.100000</v>
+        <v>1264.0999999999999</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-571.637000</v>
+        <v>-571.63699999999994</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>59561.064889</v>
+        <v>59561.064889000001</v>
       </c>
       <c r="BT22" s="1">
-        <v>16.544740</v>
+        <v>16.544740000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>1411.470000</v>
+        <v>1411.47</v>
       </c>
       <c r="BV22" s="1">
-        <v>-793.652000</v>
+        <v>-793.65200000000004</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>59571.991754</v>
+        <v>59571.991754000002</v>
       </c>
       <c r="BY22" s="1">
-        <v>16.547775</v>
+        <v>16.547775000000001</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1573.240000</v>
+        <v>1573.24</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1025.460000</v>
+        <v>-1025.46</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>59585.296439</v>
+        <v>59585.296438999998</v>
       </c>
       <c r="CD22" s="1">
-        <v>16.551471</v>
+        <v>16.551470999999999</v>
       </c>
       <c r="CE22" s="1">
-        <v>1980.830000</v>
+        <v>1980.83</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1564.860000</v>
+        <v>-1564.86</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>59411.180829</v>
+        <v>59411.180828999997</v>
       </c>
       <c r="B23" s="1">
-        <v>16.503106</v>
+        <v>16.503105999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>905.763000</v>
+        <v>905.76300000000003</v>
       </c>
       <c r="D23" s="1">
-        <v>-192.808000</v>
+        <v>-192.80799999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>59421.289296</v>
+        <v>59421.289296000003</v>
       </c>
       <c r="G23" s="1">
-        <v>16.505914</v>
+        <v>16.505914000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>921.726000</v>
+        <v>921.726</v>
       </c>
       <c r="I23" s="1">
-        <v>-163.288000</v>
+        <v>-163.28800000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>59431.819394</v>
+        <v>59431.819393999998</v>
       </c>
       <c r="L23" s="1">
-        <v>16.508839</v>
+        <v>16.508838999999998</v>
       </c>
       <c r="M23" s="1">
-        <v>942.577000</v>
+        <v>942.577</v>
       </c>
       <c r="N23" s="1">
-        <v>-117.052000</v>
+        <v>-117.05200000000001</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>59442.404485</v>
+        <v>59442.404484999999</v>
       </c>
       <c r="Q23" s="1">
-        <v>16.511779</v>
+        <v>16.511779000000001</v>
       </c>
       <c r="R23" s="1">
-        <v>948.919000</v>
+        <v>948.91899999999998</v>
       </c>
       <c r="S23" s="1">
-        <v>-102.228000</v>
+        <v>-102.22799999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>59452.922150</v>
+        <v>59452.922149999999</v>
       </c>
       <c r="V23" s="1">
-        <v>16.514701</v>
+        <v>16.514700999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>955.168000</v>
+        <v>955.16800000000001</v>
       </c>
       <c r="X23" s="1">
-        <v>-88.983500</v>
+        <v>-88.983500000000006</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>59463.384760</v>
+        <v>59463.384760000001</v>
       </c>
       <c r="AA23" s="1">
-        <v>16.517607</v>
+        <v>16.517607000000002</v>
       </c>
       <c r="AB23" s="1">
-        <v>962.464000</v>
+        <v>962.46400000000006</v>
       </c>
       <c r="AC23" s="1">
-        <v>-80.022700</v>
+        <v>-80.0227</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>59473.868204</v>
+        <v>59473.868203999999</v>
       </c>
       <c r="AF23" s="1">
         <v>16.520519</v>
       </c>
       <c r="AG23" s="1">
-        <v>967.466000</v>
+        <v>967.46600000000001</v>
       </c>
       <c r="AH23" s="1">
-        <v>-79.850300</v>
+        <v>-79.850300000000004</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
         <v>59484.413644</v>
       </c>
       <c r="AK23" s="1">
-        <v>16.523448</v>
+        <v>16.523447999999998</v>
       </c>
       <c r="AL23" s="1">
-        <v>975.519000</v>
+        <v>975.51900000000001</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.872000</v>
+        <v>-87.872</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>59495.326128</v>
+        <v>59495.326128000001</v>
       </c>
       <c r="AP23" s="1">
-        <v>16.526479</v>
+        <v>16.526478999999998</v>
       </c>
       <c r="AQ23" s="1">
-        <v>984.899000</v>
+        <v>984.899</v>
       </c>
       <c r="AR23" s="1">
-        <v>-102.942000</v>
+        <v>-102.94199999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>59506.389920</v>
+        <v>59506.389920000001</v>
       </c>
       <c r="AU23" s="1">
         <v>16.529553</v>
       </c>
       <c r="AV23" s="1">
-        <v>996.452000</v>
+        <v>996.452</v>
       </c>
       <c r="AW23" s="1">
-        <v>-124.625000</v>
+        <v>-124.625</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>59517.294129</v>
+        <v>59517.294129000002</v>
       </c>
       <c r="AZ23" s="1">
-        <v>16.532582</v>
+        <v>16.532582000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>1006.270000</v>
+        <v>1006.27</v>
       </c>
       <c r="BB23" s="1">
-        <v>-143.385000</v>
+        <v>-143.38499999999999</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>59528.710852</v>
+        <v>59528.710851999997</v>
       </c>
       <c r="BE23" s="1">
         <v>16.535753</v>
       </c>
       <c r="BF23" s="1">
-        <v>1052.210000</v>
+        <v>1052.21</v>
       </c>
       <c r="BG23" s="1">
-        <v>-228.081000</v>
+        <v>-228.08099999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>59540.215090</v>
+        <v>59540.215089999998</v>
       </c>
       <c r="BJ23" s="1">
-        <v>16.538949</v>
+        <v>16.538948999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1132.310000</v>
+        <v>1132.31</v>
       </c>
       <c r="BL23" s="1">
-        <v>-363.240000</v>
+        <v>-363.24</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>59550.864697</v>
+        <v>59550.864696999997</v>
       </c>
       <c r="BO23" s="1">
-        <v>16.541907</v>
+        <v>16.541906999999998</v>
       </c>
       <c r="BP23" s="1">
-        <v>1264.130000</v>
+        <v>1264.1300000000001</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-571.690000</v>
+        <v>-571.69000000000005</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>59561.797976</v>
+        <v>59561.797976000002</v>
       </c>
       <c r="BT23" s="1">
-        <v>16.544944</v>
+        <v>16.544944000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>1411.370000</v>
+        <v>1411.37</v>
       </c>
       <c r="BV23" s="1">
-        <v>-793.736000</v>
+        <v>-793.73599999999999</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>59572.722578</v>
+        <v>59572.722578000001</v>
       </c>
       <c r="BY23" s="1">
-        <v>16.547978</v>
+        <v>16.547978000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1573.290000</v>
+        <v>1573.29</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1025.380000</v>
+        <v>-1025.3800000000001</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>59585.504760</v>
+        <v>59585.504760000003</v>
       </c>
       <c r="CD23" s="1">
-        <v>16.551529</v>
+        <v>16.551528999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>1979.340000</v>
+        <v>1979.34</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1564.590000</v>
+        <v>-1564.59</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>59411.523070</v>
+        <v>59411.523070000003</v>
       </c>
       <c r="B24" s="1">
-        <v>16.503201</v>
+        <v>16.503201000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>905.505000</v>
+        <v>905.505</v>
       </c>
       <c r="D24" s="1">
-        <v>-192.887000</v>
+        <v>-192.887</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>59421.632032</v>
+        <v>59421.632032000001</v>
       </c>
       <c r="G24" s="1">
-        <v>16.506009</v>
+        <v>16.506008999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>921.579000</v>
+        <v>921.57899999999995</v>
       </c>
       <c r="I24" s="1">
-        <v>-163.024000</v>
+        <v>-163.024</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>59432.238018</v>
+        <v>59432.238017999996</v>
       </c>
       <c r="L24" s="1">
         <v>16.508955</v>
       </c>
       <c r="M24" s="1">
-        <v>942.463000</v>
+        <v>942.46299999999997</v>
       </c>
       <c r="N24" s="1">
-        <v>-117.080000</v>
+        <v>-117.08</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>59442.831540</v>
+        <v>59442.831539999999</v>
       </c>
       <c r="Q24" s="1">
-        <v>16.511898</v>
+        <v>16.511897999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>948.930000</v>
+        <v>948.93</v>
       </c>
       <c r="S24" s="1">
-        <v>-102.210000</v>
+        <v>-102.21</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>59453.194481</v>
+        <v>59453.194480999999</v>
       </c>
       <c r="V24" s="1">
-        <v>16.514776</v>
+        <v>16.514776000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>955.124000</v>
+        <v>955.12400000000002</v>
       </c>
       <c r="X24" s="1">
-        <v>-89.007100</v>
+        <v>-89.007099999999994</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>59463.736922</v>
+        <v>59463.736921999996</v>
       </c>
       <c r="AA24" s="1">
-        <v>16.517705</v>
+        <v>16.517704999999999</v>
       </c>
       <c r="AB24" s="1">
-        <v>962.374000</v>
+        <v>962.37400000000002</v>
       </c>
       <c r="AC24" s="1">
-        <v>-79.994700</v>
+        <v>-79.994699999999995</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>59474.208990</v>
+        <v>59474.208989999999</v>
       </c>
       <c r="AF24" s="1">
-        <v>16.520614</v>
+        <v>16.520613999999998</v>
       </c>
       <c r="AG24" s="1">
-        <v>967.468000</v>
+        <v>967.46799999999996</v>
       </c>
       <c r="AH24" s="1">
-        <v>-79.861000</v>
+        <v>-79.861000000000004</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>59484.763641</v>
+        <v>59484.763640999998</v>
       </c>
       <c r="AK24" s="1">
-        <v>16.523545</v>
+        <v>16.523544999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>975.515000</v>
+        <v>975.51499999999999</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.844700</v>
+        <v>-87.844700000000003</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>59496.044366</v>
+        <v>59496.044366000002</v>
       </c>
       <c r="AP24" s="1">
-        <v>16.526679</v>
+        <v>16.526679000000001</v>
       </c>
       <c r="AQ24" s="1">
-        <v>984.878000</v>
+        <v>984.87800000000004</v>
       </c>
       <c r="AR24" s="1">
-        <v>-102.950000</v>
+        <v>-102.95</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>59507.116031</v>
+        <v>59507.116030999998</v>
       </c>
       <c r="AU24" s="1">
-        <v>16.529754</v>
+        <v>16.529754000000001</v>
       </c>
       <c r="AV24" s="1">
-        <v>996.461000</v>
+        <v>996.46100000000001</v>
       </c>
       <c r="AW24" s="1">
-        <v>-124.602000</v>
+        <v>-124.602</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>59517.669408</v>
+        <v>59517.669408000002</v>
       </c>
       <c r="AZ24" s="1">
-        <v>16.532686</v>
+        <v>16.532686000000002</v>
       </c>
       <c r="BA24" s="1">
-        <v>1006.260000</v>
+        <v>1006.26</v>
       </c>
       <c r="BB24" s="1">
-        <v>-143.393000</v>
+        <v>-143.393</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>59529.101235</v>
+        <v>59529.101235000002</v>
       </c>
       <c r="BE24" s="1">
-        <v>16.535861</v>
+        <v>16.535861000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1052.200000</v>
+        <v>1052.2</v>
       </c>
       <c r="BG24" s="1">
-        <v>-228.057000</v>
+        <v>-228.05699999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
         <v>59540.593042</v>
@@ -6315,589 +6731,590 @@
         <v>16.539054</v>
       </c>
       <c r="BK24" s="1">
-        <v>1132.320000</v>
+        <v>1132.32</v>
       </c>
       <c r="BL24" s="1">
-        <v>-363.249000</v>
+        <v>-363.24900000000002</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>59551.580885</v>
+        <v>59551.580885000003</v>
       </c>
       <c r="BO24" s="1">
         <v>16.542106</v>
       </c>
       <c r="BP24" s="1">
-        <v>1264.120000</v>
+        <v>1264.1199999999999</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-571.683000</v>
+        <v>-571.68299999999999</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>59561.908583</v>
+        <v>59561.908582999997</v>
       </c>
       <c r="BT24" s="1">
-        <v>16.544975</v>
+        <v>16.544975000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>1411.330000</v>
+        <v>1411.33</v>
       </c>
       <c r="BV24" s="1">
-        <v>-793.791000</v>
+        <v>-793.79100000000005</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
         <v>59572.850371</v>
       </c>
       <c r="BY24" s="1">
-        <v>16.548014</v>
+        <v>16.548013999999998</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1573.240000</v>
+        <v>1573.24</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1025.410000</v>
+        <v>-1025.4100000000001</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>59586.020598</v>
+        <v>59586.020598000003</v>
       </c>
       <c r="CD24" s="1">
         <v>16.551672</v>
       </c>
       <c r="CE24" s="1">
-        <v>1979.350000</v>
+        <v>1979.35</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1566.260000</v>
+        <v>-1566.26</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>59411.944700</v>
+        <v>59411.9447</v>
       </c>
       <c r="B25" s="1">
         <v>16.503318</v>
       </c>
       <c r="C25" s="1">
-        <v>905.489000</v>
+        <v>905.48900000000003</v>
       </c>
       <c r="D25" s="1">
-        <v>-192.867000</v>
+        <v>-192.86699999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>59422.049199</v>
+        <v>59422.049199000001</v>
       </c>
       <c r="G25" s="1">
-        <v>16.506125</v>
+        <v>16.506125000000001</v>
       </c>
       <c r="H25" s="1">
-        <v>921.808000</v>
+        <v>921.80799999999999</v>
       </c>
       <c r="I25" s="1">
-        <v>-163.155000</v>
+        <v>-163.155</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>59432.535090</v>
+        <v>59432.535089999998</v>
       </c>
       <c r="L25" s="1">
         <v>16.509038</v>
       </c>
       <c r="M25" s="1">
-        <v>942.656000</v>
+        <v>942.65599999999995</v>
       </c>
       <c r="N25" s="1">
-        <v>-117.067000</v>
+        <v>-117.06699999999999</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>59443.115251</v>
+        <v>59443.115251000003</v>
       </c>
       <c r="Q25" s="1">
-        <v>16.511976</v>
+        <v>16.511976000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>948.964000</v>
+        <v>948.96400000000006</v>
       </c>
       <c r="S25" s="1">
-        <v>-102.226000</v>
+        <v>-102.226</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>59453.538679</v>
+        <v>59453.538678999998</v>
       </c>
       <c r="V25" s="1">
         <v>16.514872</v>
       </c>
       <c r="W25" s="1">
-        <v>955.268000</v>
+        <v>955.26800000000003</v>
       </c>
       <c r="X25" s="1">
-        <v>-89.002200</v>
+        <v>-89.002200000000002</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>59464.082353</v>
+        <v>59464.082352999998</v>
       </c>
       <c r="AA25" s="1">
-        <v>16.517801</v>
+        <v>16.517800999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>962.434000</v>
+        <v>962.43399999999997</v>
       </c>
       <c r="AC25" s="1">
-        <v>-80.049000</v>
+        <v>-80.049000000000007</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>59474.554667</v>
+        <v>59474.554666999997</v>
       </c>
       <c r="AF25" s="1">
-        <v>16.520710</v>
+        <v>16.520710000000001</v>
       </c>
       <c r="AG25" s="1">
-        <v>967.509000</v>
+        <v>967.50900000000001</v>
       </c>
       <c r="AH25" s="1">
-        <v>-79.881400</v>
+        <v>-79.881399999999999</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>59485.456236</v>
+        <v>59485.456235999998</v>
       </c>
       <c r="AK25" s="1">
-        <v>16.523738</v>
+        <v>16.523738000000002</v>
       </c>
       <c r="AL25" s="1">
-        <v>975.517000</v>
+        <v>975.51700000000005</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.855800</v>
+        <v>-87.855800000000002</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>59496.403965</v>
+        <v>59496.403964999998</v>
       </c>
       <c r="AP25" s="1">
-        <v>16.526779</v>
+        <v>16.526779000000001</v>
       </c>
       <c r="AQ25" s="1">
-        <v>984.891000</v>
+        <v>984.89099999999996</v>
       </c>
       <c r="AR25" s="1">
-        <v>-102.965000</v>
+        <v>-102.965</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>59507.507871</v>
+        <v>59507.507871000002</v>
       </c>
       <c r="AU25" s="1">
-        <v>16.529863</v>
+        <v>16.529862999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>996.468000</v>
+        <v>996.46799999999996</v>
       </c>
       <c r="AW25" s="1">
-        <v>-124.635000</v>
+        <v>-124.63500000000001</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>59518.048352</v>
+        <v>59518.048351999998</v>
       </c>
       <c r="AZ25" s="1">
         <v>16.532791</v>
       </c>
       <c r="BA25" s="1">
-        <v>1006.260000</v>
+        <v>1006.26</v>
       </c>
       <c r="BB25" s="1">
-        <v>-143.399000</v>
+        <v>-143.399</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>59529.767329</v>
+        <v>59529.767329000002</v>
       </c>
       <c r="BE25" s="1">
-        <v>16.536046</v>
+        <v>16.536045999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1052.230000</v>
+        <v>1052.23</v>
       </c>
       <c r="BG25" s="1">
-        <v>-228.061000</v>
+        <v>-228.06100000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>59541.275237</v>
+        <v>59541.275237000002</v>
       </c>
       <c r="BJ25" s="1">
-        <v>16.539243</v>
+        <v>16.539242999999999</v>
       </c>
       <c r="BK25" s="1">
-        <v>1132.340000</v>
+        <v>1132.3399999999999</v>
       </c>
       <c r="BL25" s="1">
-        <v>-363.278000</v>
+        <v>-363.27800000000002</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>59551.691179</v>
+        <v>59551.691179000001</v>
       </c>
       <c r="BO25" s="1">
-        <v>16.542136</v>
+        <v>16.542135999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1264.150000</v>
+        <v>1264.1500000000001</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-571.686000</v>
+        <v>-571.68600000000004</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>59562.345557</v>
+        <v>59562.345557000001</v>
       </c>
       <c r="BT25" s="1">
-        <v>16.545096</v>
+        <v>16.545096000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>1411.280000</v>
+        <v>1411.28</v>
       </c>
       <c r="BV25" s="1">
-        <v>-793.878000</v>
+        <v>-793.87800000000004</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>59573.288791</v>
+        <v>59573.288790999999</v>
       </c>
       <c r="BY25" s="1">
         <v>16.548136</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1573.250000</v>
+        <v>1573.25</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1025.220000</v>
+        <v>-1025.22</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>59586.538422</v>
+        <v>59586.538421999998</v>
       </c>
       <c r="CD25" s="1">
-        <v>16.551816</v>
+        <v>16.551815999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>1980.740000</v>
+        <v>1980.74</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1565.870000</v>
+        <v>-1565.87</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
         <v>59412.222469</v>
       </c>
       <c r="B26" s="1">
-        <v>16.503395</v>
+        <v>16.503395000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>905.616000</v>
+        <v>905.61599999999999</v>
       </c>
       <c r="D26" s="1">
-        <v>-192.774000</v>
+        <v>-192.774</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>59422.332383</v>
+        <v>59422.332383000001</v>
       </c>
       <c r="G26" s="1">
-        <v>16.506203</v>
+        <v>16.506202999999999</v>
       </c>
       <c r="H26" s="1">
-        <v>921.631000</v>
+        <v>921.63099999999997</v>
       </c>
       <c r="I26" s="1">
-        <v>-163.101000</v>
+        <v>-163.101</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>59432.878321</v>
+        <v>59432.878320999997</v>
       </c>
       <c r="L26" s="1">
-        <v>16.509133</v>
+        <v>16.509132999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>942.546000</v>
+        <v>942.54600000000005</v>
       </c>
       <c r="N26" s="1">
-        <v>-117.102000</v>
+        <v>-117.102</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>59443.459006</v>
+        <v>59443.459005999997</v>
       </c>
       <c r="Q26" s="1">
         <v>16.512072</v>
       </c>
       <c r="R26" s="1">
-        <v>948.938000</v>
+        <v>948.93799999999999</v>
       </c>
       <c r="S26" s="1">
-        <v>-102.267000</v>
+        <v>-102.267</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>59453.881910</v>
+        <v>59453.881909999996</v>
       </c>
       <c r="V26" s="1">
-        <v>16.514967</v>
+        <v>16.514966999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>955.286000</v>
+        <v>955.28599999999994</v>
       </c>
       <c r="X26" s="1">
-        <v>-89.024400</v>
+        <v>-89.0244</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>59464.779511</v>
+        <v>59464.779511000001</v>
       </c>
       <c r="AA26" s="1">
-        <v>16.517994</v>
+        <v>16.517994000000002</v>
       </c>
       <c r="AB26" s="1">
-        <v>962.390000</v>
+        <v>962.39</v>
       </c>
       <c r="AC26" s="1">
-        <v>-80.028900</v>
+        <v>-80.028899999999993</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>59475.240633</v>
+        <v>59475.240633000001</v>
       </c>
       <c r="AF26" s="1">
-        <v>16.520900</v>
+        <v>16.520900000000001</v>
       </c>
       <c r="AG26" s="1">
-        <v>967.429000</v>
+        <v>967.42899999999997</v>
       </c>
       <c r="AH26" s="1">
-        <v>-79.836700</v>
+        <v>-79.836699999999993</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>59485.804427</v>
+        <v>59485.804427000003</v>
       </c>
       <c r="AK26" s="1">
-        <v>16.523835</v>
+        <v>16.523834999999998</v>
       </c>
       <c r="AL26" s="1">
-        <v>975.521000</v>
+        <v>975.52099999999996</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.879100</v>
+        <v>-87.879099999999994</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>59496.765020</v>
+        <v>59496.765019999999</v>
       </c>
       <c r="AP26" s="1">
-        <v>16.526879</v>
+        <v>16.526879000000001</v>
       </c>
       <c r="AQ26" s="1">
-        <v>984.891000</v>
+        <v>984.89099999999996</v>
       </c>
       <c r="AR26" s="1">
-        <v>-102.958000</v>
+        <v>-102.958</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
         <v>59507.872957</v>
       </c>
       <c r="AU26" s="1">
-        <v>16.529965</v>
+        <v>16.529965000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>996.472000</v>
+        <v>996.47199999999998</v>
       </c>
       <c r="AW26" s="1">
-        <v>-124.613000</v>
+        <v>-124.613</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>59518.718447</v>
+        <v>59518.718446999999</v>
       </c>
       <c r="AZ26" s="1">
-        <v>16.532977</v>
+        <v>16.532976999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1006.260000</v>
+        <v>1006.26</v>
       </c>
       <c r="BB26" s="1">
-        <v>-143.407000</v>
+        <v>-143.40700000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>59530.219681</v>
+        <v>59530.219681000002</v>
       </c>
       <c r="BE26" s="1">
-        <v>16.536172</v>
+        <v>16.536172000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1052.210000</v>
+        <v>1052.21</v>
       </c>
       <c r="BG26" s="1">
-        <v>-228.049000</v>
+        <v>-228.04900000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>59541.382145</v>
+        <v>59541.382145000003</v>
       </c>
       <c r="BJ26" s="1">
-        <v>16.539273</v>
+        <v>16.539273000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1132.320000</v>
+        <v>1132.32</v>
       </c>
       <c r="BL26" s="1">
-        <v>-363.295000</v>
+        <v>-363.29500000000002</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>59552.102675</v>
+        <v>59552.102675000002</v>
       </c>
       <c r="BO26" s="1">
         <v>16.542251</v>
       </c>
       <c r="BP26" s="1">
-        <v>1264.140000</v>
+        <v>1264.1400000000001</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-571.677000</v>
+        <v>-571.67700000000002</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>59562.776581</v>
+        <v>59562.776580999998</v>
       </c>
       <c r="BT26" s="1">
         <v>16.545216</v>
       </c>
       <c r="BU26" s="1">
-        <v>1411.380000</v>
+        <v>1411.38</v>
       </c>
       <c r="BV26" s="1">
-        <v>-793.917000</v>
+        <v>-793.91700000000003</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>59573.721302</v>
+        <v>59573.721301999998</v>
       </c>
       <c r="BY26" s="1">
-        <v>16.548256</v>
+        <v>16.548255999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1573.170000</v>
+        <v>1573.17</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1025.330000</v>
+        <v>-1025.33</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>59587.056276</v>
+        <v>59587.056276000003</v>
       </c>
       <c r="CD26" s="1">
-        <v>16.551960</v>
+        <v>16.551960000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>1980.470000</v>
+        <v>1980.47</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1566.100000</v>
+        <v>-1566.1</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>